--- a/data/exchangerate_simple.xlsx
+++ b/data/exchangerate_simple.xlsx
@@ -1026,37 +1026,37 @@
         <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>39.276429270146</v>
+        <v>16000</v>
       </c>
       <c r="G2" t="n">
-        <v>39.276429270146</v>
+        <v>16000</v>
       </c>
       <c r="H2" t="n">
-        <v>38.818463</v>
+        <v>15813.44</v>
       </c>
       <c r="I2" t="n">
-        <v>36.5671446236559</v>
+        <v>14896.32</v>
       </c>
       <c r="J2" t="n">
-        <v>47.5</v>
+        <v>19350.03</v>
       </c>
       <c r="K2" t="n">
-        <v>47.5</v>
+        <v>19350.03</v>
       </c>
       <c r="L2" t="n">
-        <v>47.5</v>
+        <v>19350.03</v>
       </c>
       <c r="M2" t="n">
-        <v>46.619531077189</v>
+        <v>18991.135</v>
       </c>
       <c r="N2" t="n">
-        <v>47.35757473118279</v>
+        <v>19292</v>
       </c>
       <c r="O2" t="n">
-        <v>47.500014516129</v>
+        <v>19350.03</v>
       </c>
       <c r="P2" t="n">
-        <v>47.26300000000001</v>
+        <v>40000</v>
       </c>
       <c r="Q2" t="n">
         <v>48.7627535833333</v>

--- a/data/exchangerate_simple.xlsx
+++ b/data/exchangerate_simple.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>Country Name</t>
   </si>
@@ -212,12 +212,6 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
@@ -278,12 +272,6 @@
     <t>GTM</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>HND</t>
-  </si>
-  <si>
     <t>Haiti</t>
   </si>
   <si>
@@ -434,12 +422,6 @@
     <t>PAK</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -470,12 +452,6 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>SLV</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -512,12 +488,6 @@
     <t>TJK</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -552,12 +522,6 @@
   </si>
   <si>
     <t>ZMB</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>ZWE</t>
   </si>
 </sst>
 </file>
@@ -906,7 +870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,7 +2511,7 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
@@ -2562,88 +2526,88 @@
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>134.506333333333</v>
+        <v>177.721</v>
       </c>
       <c r="G18" t="n">
-        <v>142.171666666667</v>
+        <v>177.721</v>
       </c>
       <c r="H18" t="n">
-        <v>157.066666666667</v>
+        <v>177.721</v>
       </c>
       <c r="I18" t="n">
-        <v>179.729166666667</v>
+        <v>177.721</v>
       </c>
       <c r="J18" t="n">
-        <v>207.689166666667</v>
+        <v>177.721</v>
       </c>
       <c r="K18" t="n">
-        <v>232.5975</v>
+        <v>177.721</v>
       </c>
       <c r="L18" t="n">
-        <v>257.229166666667</v>
+        <v>177.721</v>
       </c>
       <c r="M18" t="n">
-        <v>285.684694833333</v>
+        <v>177.721</v>
       </c>
       <c r="N18" t="n">
-        <v>308.186666666667</v>
+        <v>177.721</v>
       </c>
       <c r="O18" t="n">
-        <v>328.870833333333</v>
+        <v>177.721</v>
       </c>
       <c r="P18" t="n">
-        <v>359.81752688172</v>
+        <v>177.721</v>
       </c>
       <c r="Q18" t="n">
-        <v>398.662222222222</v>
+        <v>177.721</v>
       </c>
       <c r="R18" t="n">
-        <v>437.935</v>
+        <v>177.721</v>
       </c>
       <c r="S18" t="n">
-        <v>477.786741487455</v>
+        <v>177.721</v>
       </c>
       <c r="T18" t="n">
-        <v>511.301817940348</v>
+        <v>177.721</v>
       </c>
       <c r="U18" t="n">
-        <v>516.617390232975</v>
+        <v>177.721</v>
       </c>
       <c r="V18" t="n">
-        <v>526.23551344086</v>
+        <v>177.721</v>
       </c>
       <c r="W18" t="n">
-        <v>573.287956733231</v>
+        <v>177.721</v>
       </c>
       <c r="X18" t="n">
-        <v>525.829200716846</v>
+        <v>177.721</v>
       </c>
       <c r="Y18" t="n">
-        <v>505.664239919355</v>
+        <v>177.721</v>
       </c>
       <c r="Z18" t="n">
-        <v>502.901461981567</v>
+        <v>177.721</v>
       </c>
       <c r="AA18" t="n">
-        <v>499.7668325652839</v>
+        <v>177.721</v>
       </c>
       <c r="AB18" t="n">
-        <v>538.3172002790579</v>
+        <v>177.720833333333</v>
       </c>
       <c r="AC18" t="n">
-        <v>534.565769969278</v>
+        <v>177.72</v>
       </c>
       <c r="AD18" t="n">
-        <v>544.73936722902</v>
+        <v>177.72</v>
       </c>
       <c r="AE18" t="n">
-        <v>567.51309030978</v>
+        <v>177.72</v>
       </c>
       <c r="AF18" t="s"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -2658,88 +2622,88 @@
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>177.721</v>
+        <v>21.836075</v>
       </c>
       <c r="G19" t="n">
-        <v>177.721</v>
+        <v>23.3454066666667</v>
       </c>
       <c r="H19" t="n">
-        <v>177.721</v>
+        <v>35.05850083333331</v>
       </c>
       <c r="I19" t="n">
-        <v>177.721</v>
+        <v>47.6627266666667</v>
       </c>
       <c r="J19" t="n">
-        <v>177.721</v>
+        <v>54.74893333333331</v>
       </c>
       <c r="K19" t="n">
-        <v>177.721</v>
+        <v>57.70735</v>
       </c>
       <c r="L19" t="n">
-        <v>177.721</v>
+        <v>58.7389583333333</v>
       </c>
       <c r="M19" t="n">
-        <v>177.721</v>
+        <v>66.573875</v>
       </c>
       <c r="N19" t="n">
-        <v>177.721</v>
+        <v>75.2597916666667</v>
       </c>
       <c r="O19" t="n">
-        <v>177.721</v>
+        <v>77.2150208333333</v>
       </c>
       <c r="P19" t="n">
-        <v>177.721</v>
+        <v>79.6819</v>
       </c>
       <c r="Q19" t="n">
-        <v>177.721</v>
+        <v>77.394975</v>
       </c>
       <c r="R19" t="n">
-        <v>177.721</v>
+        <v>72.06065</v>
       </c>
       <c r="S19" t="n">
-        <v>177.721</v>
+        <v>73.2763083333333</v>
       </c>
       <c r="T19" t="n">
-        <v>177.721</v>
+        <v>72.6466166666667</v>
       </c>
       <c r="U19" t="n">
-        <v>177.721</v>
+        <v>69.2924</v>
       </c>
       <c r="V19" t="n">
-        <v>177.721</v>
+        <v>64.58280000000001</v>
       </c>
       <c r="W19" t="n">
-        <v>177.721</v>
+        <v>72.6474166666667</v>
       </c>
       <c r="X19" t="n">
-        <v>177.721</v>
+        <v>74.3859833333333</v>
       </c>
       <c r="Y19" t="n">
-        <v>177.721</v>
+        <v>72.9378833333333</v>
       </c>
       <c r="Z19" t="n">
-        <v>177.721</v>
+        <v>77.5359666666667</v>
       </c>
       <c r="AA19" t="n">
-        <v>177.721</v>
+        <v>79.36839999999999</v>
       </c>
       <c r="AB19" t="n">
-        <v>177.720833333333</v>
+        <v>80.5790166666667</v>
       </c>
       <c r="AC19" t="n">
-        <v>177.72</v>
+        <v>100.691433333333</v>
       </c>
       <c r="AD19" t="n">
-        <v>177.72</v>
+        <v>109.443066666667</v>
       </c>
       <c r="AE19" t="n">
-        <v>177.72</v>
+        <v>110.973016666667</v>
       </c>
       <c r="AF19" t="s"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -2754,88 +2718,88 @@
         <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>21.836075</v>
+        <v>3.32174833333333</v>
       </c>
       <c r="G20" t="n">
-        <v>23.3454066666667</v>
+        <v>3.3525175</v>
       </c>
       <c r="H20" t="n">
-        <v>35.05850083333331</v>
+        <v>3.38513333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>47.6627266666667</v>
+        <v>3.39220833333333</v>
       </c>
       <c r="J20" t="n">
-        <v>54.74893333333331</v>
+        <v>3.39148333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>57.70735</v>
+        <v>3.38875</v>
       </c>
       <c r="L20" t="n">
-        <v>58.7389583333333</v>
+        <v>3.388</v>
       </c>
       <c r="M20" t="n">
-        <v>66.573875</v>
+        <v>3.39525</v>
       </c>
       <c r="N20" t="n">
-        <v>75.2597916666667</v>
+        <v>3.47205</v>
       </c>
       <c r="O20" t="n">
-        <v>77.2150208333333</v>
+        <v>3.973</v>
       </c>
       <c r="P20" t="n">
-        <v>79.6819</v>
+        <v>4.49966666666667</v>
       </c>
       <c r="Q20" t="n">
-        <v>77.394975</v>
+        <v>5.850875</v>
       </c>
       <c r="R20" t="n">
-        <v>72.06065</v>
+        <v>6.19624166666667</v>
       </c>
       <c r="S20" t="n">
-        <v>73.2763083333333</v>
+        <v>5.77883333333333</v>
       </c>
       <c r="T20" t="n">
-        <v>72.6466166666667</v>
+        <v>5.73316666666667</v>
       </c>
       <c r="U20" t="n">
-        <v>69.2924</v>
+        <v>5.63543333333333</v>
       </c>
       <c r="V20" t="n">
-        <v>64.58280000000001</v>
+        <v>5.4325</v>
       </c>
       <c r="W20" t="n">
-        <v>72.6474166666667</v>
+        <v>5.54455330862978</v>
       </c>
       <c r="X20" t="n">
-        <v>74.3859833333333</v>
+        <v>5.6219429176105</v>
       </c>
       <c r="Y20" t="n">
-        <v>72.9378833333333</v>
+        <v>5.93282765151515</v>
       </c>
       <c r="Z20" t="n">
-        <v>77.5359666666667</v>
+        <v>6.05605833333333</v>
       </c>
       <c r="AA20" t="n">
-        <v>79.36839999999999</v>
+        <v>6.870325</v>
       </c>
       <c r="AB20" t="n">
-        <v>80.5790166666667</v>
+        <v>7.07760856060606</v>
       </c>
       <c r="AC20" t="n">
-        <v>100.691433333333</v>
+        <v>7.69125833333333</v>
       </c>
       <c r="AD20" t="n">
-        <v>109.443066666667</v>
+        <v>10.0254007885465</v>
       </c>
       <c r="AE20" t="n">
-        <v>110.973016666667</v>
+        <v>17.7825335150636</v>
       </c>
       <c r="AF20" t="s"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -2850,88 +2814,88 @@
         <v>34</v>
       </c>
       <c r="F21" t="n">
-        <v>3.32174833333333</v>
+        <v>2.8025</v>
       </c>
       <c r="G21" t="n">
-        <v>3.3525175</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.38513333333333</v>
+        <v>5.465</v>
       </c>
       <c r="I21" t="n">
-        <v>3.39220833333333</v>
+        <v>6.158333333333331</v>
       </c>
       <c r="J21" t="n">
-        <v>3.39148333333333</v>
+        <v>6.351675</v>
       </c>
       <c r="K21" t="n">
-        <v>3.38875</v>
+        <v>6.70934166666667</v>
       </c>
       <c r="L21" t="n">
-        <v>3.388</v>
+        <v>7.11590833333333</v>
       </c>
       <c r="M21" t="n">
-        <v>3.39525</v>
+        <v>7.94225</v>
       </c>
       <c r="N21" t="n">
-        <v>3.47205</v>
+        <v>8.21725833333333</v>
       </c>
       <c r="O21" t="n">
-        <v>3.973</v>
+        <v>8.45749166666667</v>
       </c>
       <c r="P21" t="n">
-        <v>4.49966666666667</v>
+        <v>8.56775</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.850875</v>
+        <v>8.59968333333333</v>
       </c>
       <c r="R21" t="n">
-        <v>6.19624166666667</v>
+        <v>8.635583333333329</v>
       </c>
       <c r="S21" t="n">
-        <v>5.77883333333333</v>
+        <v>8.666441666666669</v>
       </c>
       <c r="T21" t="n">
-        <v>5.73316666666667</v>
+        <v>8.69861583333333</v>
       </c>
       <c r="U21" t="n">
-        <v>5.63543333333333</v>
+        <v>8.965949999999999</v>
       </c>
       <c r="V21" t="n">
-        <v>5.4325</v>
+        <v>9.59974166666667</v>
       </c>
       <c r="W21" t="n">
-        <v>5.54455330862978</v>
+        <v>11.7775996725</v>
       </c>
       <c r="X21" t="n">
-        <v>5.6219429176105</v>
+        <v>14.4095898080066</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.93282765151515</v>
+        <v>16.8992257595275</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.05605833333333</v>
+        <v>17.7047613782674</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.870325</v>
+        <v>18.6266289575478</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.07760856060606</v>
+        <v>19.585789907695</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.69125833333333</v>
+        <v>20.57684875</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.0254007885465</v>
+        <v>21.7315472222222</v>
       </c>
       <c r="AE21" t="n">
-        <v>17.7825335150636</v>
+        <v>21.7315472222222</v>
       </c>
       <c r="AF21" t="s"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -2946,88 +2910,88 @@
         <v>34</v>
       </c>
       <c r="F22" t="n">
-        <v>2.8025</v>
+        <v>1.2628</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>1.2628</v>
       </c>
       <c r="H22" t="n">
-        <v>5.465</v>
+        <v>1.2628</v>
       </c>
       <c r="I22" t="n">
-        <v>6.158333333333331</v>
+        <v>1.2628</v>
       </c>
       <c r="J22" t="n">
-        <v>6.351675</v>
+        <v>1.2628</v>
       </c>
       <c r="K22" t="n">
-        <v>6.70934166666667</v>
+        <v>1.2975</v>
       </c>
       <c r="L22" t="n">
-        <v>7.11590833333333</v>
+        <v>1.38981666666667</v>
       </c>
       <c r="M22" t="n">
-        <v>7.94225</v>
+        <v>2.02451666666667</v>
       </c>
       <c r="N22" t="n">
-        <v>8.21725833333333</v>
+        <v>1.97616666666667</v>
       </c>
       <c r="O22" t="n">
-        <v>8.45749166666667</v>
+        <v>2.07301666666667</v>
       </c>
       <c r="P22" t="n">
-        <v>8.56775</v>
+        <v>2.195675</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.59968333333333</v>
+        <v>2.14565</v>
       </c>
       <c r="R22" t="n">
-        <v>8.635583333333329</v>
+        <v>1.91665</v>
       </c>
       <c r="S22" t="n">
-        <v>8.666441666666669</v>
+        <v>1.812675</v>
       </c>
       <c r="T22" t="n">
-        <v>8.69861583333333</v>
+        <v>1.78043333333333</v>
       </c>
       <c r="U22" t="n">
-        <v>8.965949999999999</v>
+        <v>1.67049166666667</v>
       </c>
       <c r="V22" t="n">
-        <v>9.59974166666667</v>
+        <v>1.49079166666667</v>
       </c>
       <c r="W22" t="n">
-        <v>11.7775996725</v>
+        <v>1.67048709677419</v>
       </c>
       <c r="X22" t="n">
-        <v>14.4095898080066</v>
+        <v>1.78234166666667</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.8992257595275</v>
+        <v>1.68649543010753</v>
       </c>
       <c r="Z22" t="n">
-        <v>17.7047613782674</v>
+        <v>1.65125833333333</v>
       </c>
       <c r="AA22" t="n">
-        <v>18.6266289575478</v>
+        <v>1.66335</v>
       </c>
       <c r="AB22" t="n">
-        <v>19.585789907695</v>
+        <v>1.76566666666667</v>
       </c>
       <c r="AC22" t="n">
-        <v>20.57684875</v>
+        <v>2.26934166666667</v>
       </c>
       <c r="AD22" t="n">
-        <v>21.7315472222222</v>
+        <v>2.366725</v>
       </c>
       <c r="AE22" t="n">
-        <v>21.7315472222222</v>
+        <v>2.50954166666667</v>
       </c>
       <c r="AF22" t="s"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -3042,88 +3006,88 @@
         <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>1.2628</v>
+        <v>0.0436851673835125</v>
       </c>
       <c r="G23" t="n">
-        <v>1.2628</v>
+        <v>0.06487118758960569</v>
       </c>
       <c r="H23" t="n">
-        <v>1.2628</v>
+        <v>0.0955682388545159</v>
       </c>
       <c r="I23" t="n">
-        <v>1.2628</v>
+        <v>0.119913872960145</v>
       </c>
       <c r="J23" t="n">
-        <v>1.2628</v>
+        <v>0.163547167575201</v>
       </c>
       <c r="K23" t="n">
-        <v>1.2975</v>
+        <v>0.204796277898216</v>
       </c>
       <c r="L23" t="n">
-        <v>1.38981666666667</v>
+        <v>0.231165900582341</v>
       </c>
       <c r="M23" t="n">
-        <v>2.02451666666667</v>
+        <v>0.266642972407191</v>
       </c>
       <c r="N23" t="n">
-        <v>1.97616666666667</v>
+        <v>0.544919175868766</v>
       </c>
       <c r="O23" t="n">
-        <v>2.07301666666667</v>
+        <v>0.716305157808995</v>
       </c>
       <c r="P23" t="n">
-        <v>2.195675</v>
+        <v>0.792417084313167</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14565</v>
+        <v>0.866764326525345</v>
       </c>
       <c r="R23" t="n">
-        <v>1.91665</v>
+        <v>0.8994948540070631</v>
       </c>
       <c r="S23" t="n">
-        <v>1.812675</v>
+        <v>0.906278970038227</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78043333333333</v>
+        <v>0.91645177271303</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67049166666667</v>
+        <v>0.935247845574802</v>
       </c>
       <c r="V23" t="n">
-        <v>1.49079166666667</v>
+        <v>1.05785833333333</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67048709677419</v>
+        <v>1.4088</v>
       </c>
       <c r="X23" t="n">
-        <v>1.78234166666667</v>
+        <v>1.431025</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.68649543010753</v>
+        <v>1.51185</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.65125833333333</v>
+        <v>1.79581666666667</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.66335</v>
+        <v>1.95405</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.76566666666667</v>
+        <v>2.899775</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.26934166666667</v>
+        <v>3.668025</v>
       </c>
       <c r="AD23" t="n">
-        <v>2.366725</v>
+        <v>3.9098</v>
       </c>
       <c r="AE23" t="n">
-        <v>2.50954166666667</v>
+        <v>4.35063333333333</v>
       </c>
       <c r="AF23" t="s"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -3138,88 +3102,88 @@
         <v>34</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0436851673835125</v>
+        <v>902.0013333333329</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06487118758960569</v>
+        <v>955.490333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0955682388545159</v>
+        <v>976.6364166666671</v>
       </c>
       <c r="I24" t="n">
-        <v>0.119913872960145</v>
+        <v>991.4115</v>
       </c>
       <c r="J24" t="n">
-        <v>0.163547167575201</v>
+        <v>1004.01658333333</v>
       </c>
       <c r="K24" t="n">
-        <v>0.204796277898216</v>
+        <v>1095.3255</v>
       </c>
       <c r="L24" t="n">
-        <v>0.231165900582341</v>
+        <v>1236.83175</v>
       </c>
       <c r="M24" t="n">
-        <v>0.266642972407191</v>
+        <v>1387.40133333333</v>
       </c>
       <c r="N24" t="n">
-        <v>0.544919175868766</v>
+        <v>1746.86991666667</v>
       </c>
       <c r="O24" t="n">
-        <v>0.716305157808995</v>
+        <v>1950.55833333333</v>
       </c>
       <c r="P24" t="n">
-        <v>0.792417084313167</v>
+        <v>1975.84375</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.866764326525345</v>
+        <v>1984.93125</v>
       </c>
       <c r="R24" t="n">
-        <v>0.8994948540070631</v>
+        <v>2243.93125</v>
       </c>
       <c r="S24" t="n">
-        <v>0.906278970038227</v>
+        <v>3644.333333333329</v>
       </c>
       <c r="T24" t="n">
-        <v>0.91645177271303</v>
+        <v>5148.75</v>
       </c>
       <c r="U24" t="n">
-        <v>0.935247845574802</v>
+        <v>4197.75200416667</v>
       </c>
       <c r="V24" t="n">
-        <v>1.05785833333333</v>
+        <v>4601.691004166671</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4088</v>
+        <v>4801.0832375</v>
       </c>
       <c r="X24" t="n">
-        <v>1.431025</v>
+        <v>5726.07102083333</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.51185</v>
+        <v>6658.03125833333</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.79581666666667</v>
+        <v>6985.82902633333</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.95405</v>
+        <v>6907.8780695</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.899775</v>
+        <v>7014.11877725</v>
       </c>
       <c r="AC24" t="n">
-        <v>3.668025</v>
+        <v>7485.51674166667</v>
       </c>
       <c r="AD24" t="n">
-        <v>3.9098</v>
+        <v>8959.716125000001</v>
       </c>
       <c r="AE24" t="n">
-        <v>4.35063333333333</v>
+        <v>8959.716125000001</v>
       </c>
       <c r="AF24" t="s"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
         <v>79</v>
@@ -3234,88 +3198,88 @@
         <v>34</v>
       </c>
       <c r="F25" t="n">
-        <v>902.0013333333329</v>
+        <v>8.89571491305405</v>
       </c>
       <c r="G25" t="n">
-        <v>955.490333333333</v>
+        <v>9.11441947156805</v>
       </c>
       <c r="H25" t="n">
-        <v>976.6364166666671</v>
+        <v>9.58177096011339</v>
       </c>
       <c r="I25" t="n">
-        <v>991.4115</v>
+        <v>9.544264819309891</v>
       </c>
       <c r="J25" t="n">
-        <v>1004.01658333333</v>
+        <v>9.797173469509302</v>
       </c>
       <c r="K25" t="n">
-        <v>1095.3255</v>
+        <v>10.2001666666667</v>
       </c>
       <c r="L25" t="n">
-        <v>1236.83175</v>
+        <v>10.6431</v>
       </c>
       <c r="M25" t="n">
-        <v>1387.40133333333</v>
+        <v>11.3950916666667</v>
       </c>
       <c r="N25" t="n">
-        <v>1746.86991666667</v>
+        <v>12.7876250950944</v>
       </c>
       <c r="O25" t="n">
-        <v>1950.55833333333</v>
+        <v>15.6871583333333</v>
       </c>
       <c r="P25" t="n">
-        <v>1975.84375</v>
+        <v>19.917825</v>
       </c>
       <c r="Q25" t="n">
-        <v>1984.93125</v>
+        <v>28.5305083333333</v>
       </c>
       <c r="R25" t="n">
-        <v>2243.93125</v>
+        <v>30.0300833333333</v>
       </c>
       <c r="S25" t="n">
-        <v>3644.333333333329</v>
+        <v>28.5754333333333</v>
       </c>
       <c r="T25" t="n">
-        <v>5148.75</v>
+        <v>28.065725</v>
       </c>
       <c r="U25" t="n">
-        <v>4197.75200416667</v>
+        <v>24.8734333333333</v>
       </c>
       <c r="V25" t="n">
-        <v>4601.691004166671</v>
+        <v>22.19235</v>
       </c>
       <c r="W25" t="n">
-        <v>4801.0832375</v>
+        <v>26.6443612042313</v>
       </c>
       <c r="X25" t="n">
-        <v>5726.07102083333</v>
+        <v>28.0119536626841</v>
       </c>
       <c r="Y25" t="n">
-        <v>6658.03125833333</v>
+        <v>29.4615200601576</v>
       </c>
       <c r="Z25" t="n">
-        <v>6985.82902633333</v>
+        <v>32.0771338886217</v>
       </c>
       <c r="AA25" t="n">
-        <v>6907.8780695</v>
+        <v>35.9575868341651</v>
       </c>
       <c r="AB25" t="n">
-        <v>7014.11877725</v>
+        <v>41.7329616505126</v>
       </c>
       <c r="AC25" t="n">
-        <v>7485.51674166667</v>
+        <v>42.5062080923725</v>
       </c>
       <c r="AD25" t="n">
-        <v>8959.716125000001</v>
+        <v>43.88463359469051</v>
       </c>
       <c r="AE25" t="n">
-        <v>8959.716125000001</v>
+        <v>43.88463359469051</v>
       </c>
       <c r="AF25" t="s"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
         <v>81</v>
@@ -3330,88 +3294,88 @@
         <v>34</v>
       </c>
       <c r="F26" t="n">
-        <v>8.89571491305405</v>
+        <v>264.691800750579</v>
       </c>
       <c r="G26" t="n">
-        <v>9.11441947156805</v>
+        <v>283.162579500018</v>
       </c>
       <c r="H26" t="n">
-        <v>9.58177096011339</v>
+        <v>555.204695655697</v>
       </c>
       <c r="I26" t="n">
-        <v>9.544264819309891</v>
+        <v>499.14842590131</v>
       </c>
       <c r="J26" t="n">
-        <v>9.797173469509302</v>
+        <v>511.552430272516</v>
       </c>
       <c r="K26" t="n">
-        <v>10.2001666666667</v>
+        <v>583.669372353395</v>
       </c>
       <c r="L26" t="n">
-        <v>10.6431</v>
+        <v>589.951774567332</v>
       </c>
       <c r="M26" t="n">
-        <v>11.3950916666667</v>
+        <v>615.6991319738059</v>
       </c>
       <c r="N26" t="n">
-        <v>12.7876250950944</v>
+        <v>711.976274430833</v>
       </c>
       <c r="O26" t="n">
-        <v>15.6871583333333</v>
+        <v>733.03850707</v>
       </c>
       <c r="P26" t="n">
-        <v>19.917825</v>
+        <v>696.988203611667</v>
       </c>
       <c r="Q26" t="n">
-        <v>28.5305083333333</v>
+        <v>581.200313864167</v>
       </c>
       <c r="R26" t="n">
-        <v>30.0300833333333</v>
+        <v>528.284809305</v>
       </c>
       <c r="S26" t="n">
-        <v>28.5754333333333</v>
+        <v>527.46814284</v>
       </c>
       <c r="T26" t="n">
-        <v>28.065725</v>
+        <v>522.890109610833</v>
       </c>
       <c r="U26" t="n">
-        <v>24.8734333333333</v>
+        <v>479.2667825875</v>
       </c>
       <c r="V26" t="n">
-        <v>22.19235</v>
+        <v>447.805255560773</v>
       </c>
       <c r="W26" t="n">
-        <v>26.6443612042313</v>
+        <v>472.186290754893</v>
       </c>
       <c r="X26" t="n">
-        <v>28.0119536626841</v>
+        <v>495.277021572396</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.4615200601576</v>
+        <v>471.8661140917</v>
       </c>
       <c r="Z26" t="n">
-        <v>32.0771338886217</v>
+        <v>510.52713590197</v>
       </c>
       <c r="AA26" t="n">
-        <v>35.9575868341651</v>
+        <v>494.04003744699</v>
       </c>
       <c r="AB26" t="n">
-        <v>41.7329616505126</v>
+        <v>494.414952864937</v>
       </c>
       <c r="AC26" t="n">
-        <v>42.5062080923725</v>
+        <v>591.449507501328</v>
       </c>
       <c r="AD26" t="n">
-        <v>43.88463359469051</v>
+        <v>593.008170424934</v>
       </c>
       <c r="AE26" t="n">
-        <v>43.88463359469051</v>
+        <v>582.094550149641</v>
       </c>
       <c r="AF26" t="s"/>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
@@ -3426,88 +3390,88 @@
         <v>34</v>
       </c>
       <c r="F27" t="n">
-        <v>264.691800750579</v>
+        <v>5.17063</v>
       </c>
       <c r="G27" t="n">
-        <v>283.162579500018</v>
+        <v>5.6353625</v>
       </c>
       <c r="H27" t="n">
-        <v>555.204695655697</v>
+        <v>5.75120083333333</v>
       </c>
       <c r="I27" t="n">
-        <v>499.14842590131</v>
+        <v>5.8103425</v>
       </c>
       <c r="J27" t="n">
-        <v>511.552430272516</v>
+        <v>6.0495125</v>
       </c>
       <c r="K27" t="n">
-        <v>583.669372353395</v>
+        <v>6.06526916666667</v>
       </c>
       <c r="L27" t="n">
-        <v>589.951774567332</v>
+        <v>6.39465333333333</v>
       </c>
       <c r="M27" t="n">
-        <v>615.6991319738059</v>
+        <v>7.385610000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>711.976274430833</v>
+        <v>7.76315916666667</v>
       </c>
       <c r="O27" t="n">
-        <v>733.03850707</v>
+        <v>7.8585925</v>
       </c>
       <c r="P27" t="n">
-        <v>696.988203611667</v>
+        <v>7.821644999999999</v>
       </c>
       <c r="Q27" t="n">
-        <v>581.200313864167</v>
+        <v>7.94084666666667</v>
       </c>
       <c r="R27" t="n">
-        <v>528.284809305</v>
+        <v>7.94649583333333</v>
       </c>
       <c r="S27" t="n">
-        <v>527.46814284</v>
+        <v>7.633944166666669</v>
       </c>
       <c r="T27" t="n">
-        <v>522.890109610833</v>
+        <v>7.60263083333333</v>
       </c>
       <c r="U27" t="n">
-        <v>479.2667825875</v>
+        <v>7.67330416666667</v>
       </c>
       <c r="V27" t="n">
-        <v>447.805255560773</v>
+        <v>7.56002833333333</v>
       </c>
       <c r="W27" t="n">
-        <v>472.186290754893</v>
+        <v>8.161555416666669</v>
       </c>
       <c r="X27" t="n">
-        <v>495.277021572396</v>
+        <v>8.057770833333331</v>
       </c>
       <c r="Y27" t="n">
-        <v>471.8661140917</v>
+        <v>7.78541833333333</v>
       </c>
       <c r="Z27" t="n">
-        <v>510.52713590197</v>
+        <v>7.83360541666667</v>
       </c>
       <c r="AA27" t="n">
-        <v>494.04003744699</v>
+        <v>7.85681375</v>
       </c>
       <c r="AB27" t="n">
-        <v>494.414952864937</v>
+        <v>7.73223333333333</v>
       </c>
       <c r="AC27" t="n">
-        <v>591.449507501328</v>
+        <v>7.654814999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>593.008170424934</v>
+        <v>7.59993708333333</v>
       </c>
       <c r="AE27" t="n">
-        <v>582.094550149641</v>
+        <v>7.34793875</v>
       </c>
       <c r="AF27" t="s"/>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -3522,88 +3486,88 @@
         <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>5.17063</v>
+        <v>9.801666666666669</v>
       </c>
       <c r="G28" t="n">
-        <v>5.6353625</v>
+        <v>12.8225</v>
       </c>
       <c r="H28" t="n">
-        <v>5.75120083333333</v>
+        <v>15.04</v>
       </c>
       <c r="I28" t="n">
-        <v>5.8103425</v>
+        <v>15.1097333333333</v>
       </c>
       <c r="J28" t="n">
-        <v>6.0495125</v>
+        <v>15.70115</v>
       </c>
       <c r="K28" t="n">
-        <v>6.06526916666667</v>
+        <v>16.6545</v>
       </c>
       <c r="L28" t="n">
-        <v>6.39465333333333</v>
+        <v>16.7656666666667</v>
       </c>
       <c r="M28" t="n">
-        <v>7.385610000000001</v>
+        <v>16.9378916666667</v>
       </c>
       <c r="N28" t="n">
-        <v>7.76315916666667</v>
+        <v>21.1706666666667</v>
       </c>
       <c r="O28" t="n">
-        <v>7.8585925</v>
+        <v>24.4290833333333</v>
       </c>
       <c r="P28" t="n">
-        <v>7.821644999999999</v>
+        <v>29.2504833333333</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.94084666666667</v>
+        <v>42.36675833333329</v>
       </c>
       <c r="R28" t="n">
-        <v>7.94649583333333</v>
+        <v>38.3520333333333</v>
       </c>
       <c r="S28" t="n">
-        <v>7.633944166666669</v>
+        <v>40.44855</v>
       </c>
       <c r="T28" t="n">
-        <v>7.60263083333333</v>
+        <v>40.40851666666671</v>
       </c>
       <c r="U28" t="n">
-        <v>7.67330416666667</v>
+        <v>36.86141666666671</v>
       </c>
       <c r="V28" t="n">
-        <v>7.56002833333333</v>
+        <v>39.1075916666667</v>
       </c>
       <c r="W28" t="n">
-        <v>8.161555416666669</v>
+        <v>41.1976083333333</v>
       </c>
       <c r="X28" t="n">
-        <v>8.057770833333331</v>
+        <v>39.7974</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.78541833333333</v>
+        <v>40.5228219393744</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.83360541666667</v>
+        <v>41.9497229523156</v>
       </c>
       <c r="AA28" t="n">
-        <v>7.85681375</v>
+        <v>43.4627833333333</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.73223333333333</v>
+        <v>45.21598089237921</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.654814999999999</v>
+        <v>50.7064266739439</v>
       </c>
       <c r="AD28" t="n">
-        <v>7.59993708333333</v>
+        <v>63.33581836989239</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.34793875</v>
+        <v>63.33581836989239</v>
       </c>
       <c r="AF28" t="s"/>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
         <v>87</v>
@@ -3618,88 +3582,88 @@
         <v>34</v>
       </c>
       <c r="F29" t="n">
-        <v>5.497916666666669</v>
+        <v>2029.92083333333</v>
       </c>
       <c r="G29" t="n">
-        <v>6.471583333333331</v>
+        <v>2087.10386666667</v>
       </c>
       <c r="H29" t="n">
-        <v>8.4087575</v>
+        <v>2160.753675</v>
       </c>
       <c r="I29" t="n">
-        <v>9.47098666666667</v>
+        <v>2248.607975</v>
       </c>
       <c r="J29" t="n">
-        <v>11.7053025</v>
+        <v>2342.29629166667</v>
       </c>
       <c r="K29" t="n">
-        <v>13.0034741666667</v>
+        <v>2909.38</v>
       </c>
       <c r="L29" t="n">
-        <v>13.385015</v>
+        <v>10013.6225</v>
       </c>
       <c r="M29" t="n">
-        <v>14.2131683333333</v>
+        <v>7855.15</v>
       </c>
       <c r="N29" t="n">
-        <v>14.840625</v>
+        <v>8421.775</v>
       </c>
       <c r="O29" t="n">
-        <v>15.476825</v>
+        <v>10260.85</v>
       </c>
       <c r="P29" t="n">
-        <v>16.4370583333333</v>
+        <v>9311.191666666669</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.3524916666667</v>
+        <v>8577.13333333334</v>
       </c>
       <c r="R29" t="n">
-        <v>18.209725</v>
+        <v>8938.85</v>
       </c>
       <c r="S29" t="n">
-        <v>18.8323416666667</v>
+        <v>9704.74166666667</v>
       </c>
       <c r="T29" t="n">
-        <v>18.8952083333333</v>
+        <v>9159.316666666669</v>
       </c>
       <c r="U29" t="n">
-        <v>18.8951</v>
+        <v>9141</v>
       </c>
       <c r="V29" t="n">
-        <v>18.9037583333333</v>
+        <v>9698.9625</v>
       </c>
       <c r="W29" t="n">
-        <v>18.8951</v>
+        <v>10389.9375</v>
       </c>
       <c r="X29" t="n">
-        <v>18.8951</v>
+        <v>9090.433333333331</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.9171416666667</v>
+        <v>8770.433333333331</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5022495121615</v>
+        <v>9386.629166666669</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.3537791666667</v>
+        <v>10461.24</v>
       </c>
       <c r="AB29" t="n">
-        <v>20.9871583333333</v>
+        <v>11865.2112962963</v>
       </c>
       <c r="AC29" t="n">
-        <v>21.945175</v>
+        <v>13389.4129365079</v>
       </c>
       <c r="AD29" t="n">
-        <v>22.835025</v>
+        <v>13308.3268020542</v>
       </c>
       <c r="AE29" t="n">
-        <v>23.4870854134345</v>
+        <v>13380.8716666667</v>
       </c>
       <c r="AF29" t="s"/>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
         <v>89</v>
@@ -3714,88 +3678,88 @@
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>9.801666666666669</v>
+        <v>25.9180833333333</v>
       </c>
       <c r="G30" t="n">
-        <v>12.8225</v>
+        <v>30.4932916666667</v>
       </c>
       <c r="H30" t="n">
-        <v>15.04</v>
+        <v>31.3737425</v>
       </c>
       <c r="I30" t="n">
-        <v>15.1097333333333</v>
+        <v>32.4270766666667</v>
       </c>
       <c r="J30" t="n">
-        <v>15.70115</v>
+        <v>35.43317333333329</v>
       </c>
       <c r="K30" t="n">
-        <v>16.6545</v>
+        <v>36.3132858333333</v>
       </c>
       <c r="L30" t="n">
-        <v>16.7656666666667</v>
+        <v>41.259365</v>
       </c>
       <c r="M30" t="n">
-        <v>16.9378916666667</v>
+        <v>43.0554283333333</v>
       </c>
       <c r="N30" t="n">
-        <v>21.1706666666667</v>
+        <v>44.941605</v>
       </c>
       <c r="O30" t="n">
-        <v>24.4290833333333</v>
+        <v>47.1864141666667</v>
       </c>
       <c r="P30" t="n">
-        <v>29.2504833333333</v>
+        <v>48.6103191666667</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.36675833333329</v>
+        <v>46.5832841666667</v>
       </c>
       <c r="R30" t="n">
-        <v>38.3520333333333</v>
+        <v>45.3164666666667</v>
       </c>
       <c r="S30" t="n">
-        <v>40.44855</v>
+        <v>44.099975</v>
       </c>
       <c r="T30" t="n">
-        <v>40.40851666666671</v>
+        <v>45.3070083333333</v>
       </c>
       <c r="U30" t="n">
-        <v>36.86141666666671</v>
+        <v>41.3485333333333</v>
       </c>
       <c r="V30" t="n">
-        <v>39.1075916666667</v>
+        <v>43.5051833333333</v>
       </c>
       <c r="W30" t="n">
-        <v>41.1976083333333</v>
+        <v>48.4052666666667</v>
       </c>
       <c r="X30" t="n">
-        <v>39.7974</v>
+        <v>45.7258121212121</v>
       </c>
       <c r="Y30" t="n">
-        <v>40.5228219393744</v>
+        <v>46.6704666666667</v>
       </c>
       <c r="Z30" t="n">
-        <v>41.9497229523156</v>
+        <v>53.4372333333333</v>
       </c>
       <c r="AA30" t="n">
-        <v>43.4627833333333</v>
+        <v>58.5978454166667</v>
       </c>
       <c r="AB30" t="n">
-        <v>45.21598089237921</v>
+        <v>61.02951446078429</v>
       </c>
       <c r="AC30" t="n">
-        <v>50.7064266739439</v>
+        <v>64.1519444632786</v>
       </c>
       <c r="AD30" t="n">
-        <v>63.33581836989239</v>
+        <v>67.1953128073894</v>
       </c>
       <c r="AE30" t="n">
-        <v>63.33581836989239</v>
+        <v>65.12156864506589</v>
       </c>
       <c r="AF30" t="s"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s">
         <v>91</v>
@@ -3810,88 +3774,88 @@
         <v>34</v>
       </c>
       <c r="F31" t="n">
-        <v>2029.92083333333</v>
+        <v>65.5678412857706</v>
       </c>
       <c r="G31" t="n">
-        <v>2087.10386666667</v>
+        <v>1268.07876133881</v>
       </c>
       <c r="H31" t="n">
-        <v>2160.753675</v>
+        <v>1749.17373625079</v>
       </c>
       <c r="I31" t="n">
-        <v>2248.607975</v>
+        <v>1748.35024562759</v>
       </c>
       <c r="J31" t="n">
-        <v>2342.29629166667</v>
+        <v>1751.18635583594</v>
       </c>
       <c r="K31" t="n">
-        <v>2909.38</v>
+        <v>1753.34547748286</v>
       </c>
       <c r="L31" t="n">
-        <v>10013.6225</v>
+        <v>1752.28599459359</v>
       </c>
       <c r="M31" t="n">
-        <v>7855.15</v>
+        <v>1753.35494977138</v>
       </c>
       <c r="N31" t="n">
-        <v>8421.775</v>
+        <v>1764.85606929191</v>
       </c>
       <c r="O31" t="n">
-        <v>10260.85</v>
+        <v>1753.98568465785</v>
       </c>
       <c r="P31" t="n">
-        <v>9311.191666666669</v>
+        <v>6907.034455616529</v>
       </c>
       <c r="Q31" t="n">
-        <v>8577.13333333334</v>
+        <v>8193.88751916667</v>
       </c>
       <c r="R31" t="n">
-        <v>8938.85</v>
+        <v>8613.98942075</v>
       </c>
       <c r="S31" t="n">
-        <v>9704.74166666667</v>
+        <v>8963.95890666667</v>
       </c>
       <c r="T31" t="n">
-        <v>9159.316666666669</v>
+        <v>9170.942877500001</v>
       </c>
       <c r="U31" t="n">
-        <v>9141</v>
+        <v>9281.15182833333</v>
       </c>
       <c r="V31" t="n">
-        <v>9698.9625</v>
+        <v>9428.528260833331</v>
       </c>
       <c r="W31" t="n">
-        <v>10389.9375</v>
+        <v>9864.3024562682</v>
       </c>
       <c r="X31" t="n">
-        <v>9090.433333333331</v>
+        <v>10254.176470289</v>
       </c>
       <c r="Y31" t="n">
-        <v>8770.433333333331</v>
+        <v>10616.3066439076</v>
       </c>
       <c r="Z31" t="n">
-        <v>9386.629166666669</v>
+        <v>12175.5472222222</v>
       </c>
       <c r="AA31" t="n">
-        <v>10461.24</v>
+        <v>18414.4480100374</v>
       </c>
       <c r="AB31" t="n">
-        <v>11865.2112962963</v>
+        <v>25941.6641445972</v>
       </c>
       <c r="AC31" t="n">
-        <v>13389.4129365079</v>
+        <v>29011.491377053</v>
       </c>
       <c r="AD31" t="n">
-        <v>13308.3268020542</v>
+        <v>30914.8524362967</v>
       </c>
       <c r="AE31" t="n">
-        <v>13380.8716666667</v>
+        <v>33226.2981524127</v>
       </c>
       <c r="AF31" t="s"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
         <v>93</v>
@@ -3906,88 +3870,86 @@
         <v>34</v>
       </c>
       <c r="F32" t="n">
-        <v>25.9180833333333</v>
+        <v>2002.38558586824</v>
       </c>
       <c r="G32" t="n">
-        <v>30.4932916666667</v>
+        <v>2002.38629443332</v>
       </c>
       <c r="H32" t="n">
-        <v>31.3737425</v>
+        <v>2002.38738948844</v>
       </c>
       <c r="I32" t="n">
-        <v>32.4270766666667</v>
+        <v>2002.38722845093</v>
       </c>
       <c r="J32" t="n">
-        <v>35.43317333333329</v>
+        <v>2002.38721234717</v>
       </c>
       <c r="K32" t="n">
-        <v>36.3132858333333</v>
+        <v>2002.38721234717</v>
       </c>
       <c r="L32" t="n">
-        <v>41.259365</v>
+        <v>2002.38724455468</v>
       </c>
       <c r="M32" t="n">
-        <v>43.0554283333333</v>
+        <v>2002.3897728437</v>
       </c>
       <c r="N32" t="n">
-        <v>44.941605</v>
+        <v>2002.40340735354</v>
       </c>
       <c r="O32" t="n">
-        <v>47.1864141666667</v>
+        <v>2002.40491037037</v>
       </c>
       <c r="P32" t="n">
-        <v>48.6103191666667</v>
+        <v>2002.37270286683</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.5832841666667</v>
+        <v>1453.41666666667</v>
       </c>
       <c r="R32" t="n">
-        <v>45.3164666666667</v>
+        <v>1472</v>
       </c>
       <c r="S32" t="n">
-        <v>44.099975</v>
+        <v>1467.41666666667</v>
       </c>
       <c r="T32" t="n">
-        <v>45.3070083333333</v>
+        <v>1254.56721858704</v>
       </c>
       <c r="U32" t="n">
-        <v>41.3485333333333</v>
+        <v>1193.08333333333</v>
       </c>
       <c r="V32" t="n">
-        <v>43.5051833333333</v>
+        <v>1170</v>
       </c>
       <c r="W32" t="n">
-        <v>48.4052666666667</v>
+        <v>1170</v>
       </c>
       <c r="X32" t="n">
-        <v>45.7258121212121</v>
+        <v>1170</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.6704666666667</v>
+        <v>1166.16666666667</v>
       </c>
       <c r="Z32" t="n">
-        <v>53.4372333333333</v>
+        <v>1166</v>
       </c>
       <c r="AA32" t="n">
-        <v>58.5978454166667</v>
+        <v>1166</v>
       </c>
       <c r="AB32" t="n">
-        <v>61.02951446078429</v>
+        <v>1167.33333333333</v>
       </c>
       <c r="AC32" t="n">
-        <v>64.1519444632786</v>
+        <v>1182</v>
       </c>
       <c r="AD32" t="n">
-        <v>67.1953128073894</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>65.12156864506589</v>
-      </c>
+        <v>1184</v>
+      </c>
+      <c r="AE32" t="s"/>
       <c r="AF32" t="s"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="1" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
@@ -4002,88 +3964,88 @@
         <v>34</v>
       </c>
       <c r="F33" t="n">
-        <v>65.5678412857706</v>
+        <v>2.45908333333333</v>
       </c>
       <c r="G33" t="n">
-        <v>1268.07876133881</v>
+        <v>2.83008333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1749.17373625079</v>
+        <v>3.01105520833333</v>
       </c>
       <c r="I33" t="n">
-        <v>1748.35024562759</v>
+        <v>3.01129166666667</v>
       </c>
       <c r="J33" t="n">
-        <v>1751.18635583594</v>
+        <v>3.19165</v>
       </c>
       <c r="K33" t="n">
-        <v>1753.34547748286</v>
+        <v>3.44935</v>
       </c>
       <c r="L33" t="n">
-        <v>1752.28599459359</v>
+        <v>3.800075</v>
       </c>
       <c r="M33" t="n">
-        <v>1753.35494977138</v>
+        <v>4.13971666666667</v>
       </c>
       <c r="N33" t="n">
-        <v>1764.85606929191</v>
+        <v>4.07733333333333</v>
       </c>
       <c r="O33" t="n">
-        <v>1753.98568465785</v>
+        <v>4.20565</v>
       </c>
       <c r="P33" t="n">
-        <v>6907.034455616529</v>
+        <v>4.737825</v>
       </c>
       <c r="Q33" t="n">
-        <v>8193.88751916667</v>
+        <v>4.55413333333333</v>
       </c>
       <c r="R33" t="n">
-        <v>8613.98942075</v>
+        <v>4.48198333333333</v>
       </c>
       <c r="S33" t="n">
-        <v>8963.95890666667</v>
+        <v>4.4877</v>
       </c>
       <c r="T33" t="n">
-        <v>9170.942877500001</v>
+        <v>4.45580833333333</v>
       </c>
       <c r="U33" t="n">
-        <v>9281.15182833333</v>
+        <v>4.108082949055779</v>
       </c>
       <c r="V33" t="n">
-        <v>9428.528260833331</v>
+        <v>3.58802119408369</v>
       </c>
       <c r="W33" t="n">
-        <v>9864.3024562682</v>
+        <v>3.93233547791667</v>
       </c>
       <c r="X33" t="n">
-        <v>10254.176470289</v>
+        <v>3.738975</v>
       </c>
       <c r="Y33" t="n">
-        <v>10616.3066439076</v>
+        <v>3.5781293062201</v>
       </c>
       <c r="Z33" t="n">
-        <v>12175.5472222222</v>
+        <v>3.85592182539683</v>
       </c>
       <c r="AA33" t="n">
-        <v>18414.4480100374</v>
+        <v>3.61075833333333</v>
       </c>
       <c r="AB33" t="n">
-        <v>25941.6641445972</v>
+        <v>3.577925</v>
       </c>
       <c r="AC33" t="n">
-        <v>29011.491377053</v>
+        <v>3.88683333333333</v>
       </c>
       <c r="AD33" t="n">
-        <v>30914.8524362967</v>
+        <v>3.84056666666667</v>
       </c>
       <c r="AE33" t="n">
-        <v>33226.2981524127</v>
+        <v>3.59955554812834</v>
       </c>
       <c r="AF33" t="s"/>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" s="1" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
         <v>97</v>
@@ -4098,86 +4060,88 @@
         <v>34</v>
       </c>
       <c r="F34" t="n">
-        <v>2002.38558586824</v>
+        <v>0.679818333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>2002.38629443332</v>
+        <v>0.692850833333333</v>
       </c>
       <c r="H34" t="n">
-        <v>2002.38738948844</v>
+        <v>0.698764166666667</v>
       </c>
       <c r="I34" t="n">
-        <v>2002.38722845093</v>
+        <v>0.7003775</v>
       </c>
       <c r="J34" t="n">
-        <v>2002.38721234717</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>2002.38721234717</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="L34" t="n">
-        <v>2002.38724455468</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="M34" t="n">
-        <v>2002.3897728437</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="N34" t="n">
-        <v>2002.40340735354</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>2002.40491037037</v>
+        <v>0.7089831740666659</v>
       </c>
       <c r="P34" t="n">
-        <v>2002.37270286683</v>
+        <v>0.7089998333333329</v>
       </c>
       <c r="Q34" t="n">
-        <v>1453.41666666667</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="R34" t="n">
-        <v>1472</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="S34" t="n">
-        <v>1467.41666666667</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="T34" t="n">
-        <v>1254.56721858704</v>
+        <v>0.7090000000000001</v>
       </c>
       <c r="U34" t="n">
-        <v>1193.08333333333</v>
+        <v>0.708999766666667</v>
       </c>
       <c r="V34" t="n">
-        <v>1170</v>
+        <v>0.70966655</v>
       </c>
       <c r="W34" t="n">
-        <v>1170</v>
+        <v>0.71</v>
       </c>
       <c r="X34" t="n">
-        <v>1170</v>
+        <v>0.71</v>
       </c>
       <c r="Y34" t="n">
-        <v>1166.16666666667</v>
+        <v>0.71</v>
       </c>
       <c r="Z34" t="n">
-        <v>1166</v>
+        <v>0.71</v>
       </c>
       <c r="AA34" t="n">
-        <v>1166</v>
+        <v>0.71</v>
       </c>
       <c r="AB34" t="n">
-        <v>1167.33333333333</v>
+        <v>0.71</v>
       </c>
       <c r="AC34" t="n">
-        <v>1182</v>
+        <v>0.71</v>
       </c>
       <c r="AD34" t="n">
-        <v>1184</v>
-      </c>
-      <c r="AE34" t="s"/>
+        <v>0.71</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.71</v>
+      </c>
       <c r="AF34" t="s"/>
     </row>
     <row r="35" spans="1:32">
       <c r="A35" s="1" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
@@ -4192,88 +4156,88 @@
         <v>34</v>
       </c>
       <c r="F35" t="n">
-        <v>2.45908333333333</v>
+        <v>32.2168333333333</v>
       </c>
       <c r="G35" t="n">
-        <v>2.83008333333333</v>
+        <v>58.0013333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>3.01105520833333</v>
+        <v>56.050575</v>
       </c>
       <c r="I35" t="n">
-        <v>3.01129166666667</v>
+        <v>51.4298333333333</v>
       </c>
       <c r="J35" t="n">
-        <v>3.19165</v>
+        <v>57.1148666666667</v>
       </c>
       <c r="K35" t="n">
-        <v>3.44935</v>
+        <v>58.7318416666667</v>
       </c>
       <c r="L35" t="n">
-        <v>3.800075</v>
+        <v>60.3667</v>
       </c>
       <c r="M35" t="n">
-        <v>4.13971666666667</v>
+        <v>70.3262166666667</v>
       </c>
       <c r="N35" t="n">
-        <v>4.07733333333333</v>
+        <v>76.1755416666667</v>
       </c>
       <c r="O35" t="n">
-        <v>4.20565</v>
+        <v>78.56319499999999</v>
       </c>
       <c r="P35" t="n">
-        <v>4.737825</v>
+        <v>78.7491416666667</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.55413333333333</v>
+        <v>75.93556944444441</v>
       </c>
       <c r="R35" t="n">
-        <v>4.48198333333333</v>
+        <v>79.17387606421359</v>
       </c>
       <c r="S35" t="n">
-        <v>4.4877</v>
+        <v>75.554109451431</v>
       </c>
       <c r="T35" t="n">
-        <v>4.45580833333333</v>
+        <v>72.1008350178621</v>
       </c>
       <c r="U35" t="n">
-        <v>4.108082949055779</v>
+        <v>67.31763812428571</v>
       </c>
       <c r="V35" t="n">
-        <v>3.58802119408369</v>
+        <v>69.17531981622599</v>
       </c>
       <c r="W35" t="n">
-        <v>3.93233547791667</v>
+        <v>77.35201229757901</v>
       </c>
       <c r="X35" t="n">
-        <v>3.738975</v>
+        <v>79.23315170454549</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.5781293062201</v>
+        <v>88.81076997104559</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.85592182539683</v>
+        <v>84.52960175735291</v>
       </c>
       <c r="AA35" t="n">
-        <v>3.61075833333333</v>
+        <v>86.1228788982654</v>
       </c>
       <c r="AB35" t="n">
-        <v>3.577925</v>
+        <v>87.9221638089727</v>
       </c>
       <c r="AC35" t="n">
-        <v>3.88683333333333</v>
+        <v>98.17845332652711</v>
       </c>
       <c r="AD35" t="n">
-        <v>3.84056666666667</v>
+        <v>101.504369498594</v>
       </c>
       <c r="AE35" t="n">
-        <v>3.59955554812834</v>
+        <v>103.373899058337</v>
       </c>
       <c r="AF35" t="s"/>
     </row>
     <row r="36" spans="1:32">
       <c r="A36" s="1" t="n">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
         <v>101</v>
@@ -4288,88 +4252,88 @@
         <v>34</v>
       </c>
       <c r="F36" t="n">
-        <v>0.679818333333333</v>
+        <v>10.8416833333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0.692850833333333</v>
+        <v>10.8416833333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0.698764166666667</v>
+        <v>10.8416833333333</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7003775</v>
+        <v>10.8218833333333</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7090000000000001</v>
+        <v>12.8095583333333</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7090000000000001</v>
+        <v>17.3624916666667</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7090000000000001</v>
+        <v>20.8375666666667</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7090000000000001</v>
+        <v>39.0077333333333</v>
       </c>
       <c r="N36" t="n">
-        <v>0.7090000000000001</v>
+        <v>47.7038333333333</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7089831740666659</v>
+        <v>48.3779583333333</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7089998333333329</v>
+        <v>46.93706666666669</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7090000000000001</v>
+        <v>43.648375</v>
       </c>
       <c r="R36" t="n">
-        <v>0.7090000000000001</v>
+        <v>42.64994166666671</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7090000000000001</v>
+        <v>41.0118205059349</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7090000000000001</v>
+        <v>40.1528999454205</v>
       </c>
       <c r="U36" t="n">
-        <v>0.708999766666667</v>
+        <v>37.3162568055556</v>
       </c>
       <c r="V36" t="n">
-        <v>0.70966655</v>
+        <v>36.57459166666671</v>
       </c>
       <c r="W36" t="n">
-        <v>0.71</v>
+        <v>42.9041083333333</v>
       </c>
       <c r="X36" t="n">
-        <v>0.71</v>
+        <v>45.9642614008139</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.71</v>
+        <v>46.1439013172043</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.71</v>
+        <v>47.00447914225679</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.71</v>
+        <v>48.4380590087726</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.71</v>
+        <v>53.654058312852</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.71</v>
+        <v>64.46210827252941</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.71</v>
+        <v>69.9140658252997</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.71</v>
+        <v>68.866667859063</v>
       </c>
       <c r="AF36" t="s"/>
     </row>
     <row r="37" spans="1:32">
       <c r="A37" s="1" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
         <v>103</v>
@@ -4384,88 +4348,88 @@
         <v>34</v>
       </c>
       <c r="F37" t="n">
-        <v>32.2168333333333</v>
+        <v>1266.58333333333</v>
       </c>
       <c r="G37" t="n">
-        <v>58.0013333333333</v>
+        <v>2689</v>
       </c>
       <c r="H37" t="n">
-        <v>56.050575</v>
+        <v>2545.25</v>
       </c>
       <c r="I37" t="n">
-        <v>51.4298333333333</v>
+        <v>2450.83333333333</v>
       </c>
       <c r="J37" t="n">
-        <v>57.1148666666667</v>
+        <v>2624.08333333333</v>
       </c>
       <c r="K37" t="n">
-        <v>58.7318416666667</v>
+        <v>2946.25</v>
       </c>
       <c r="L37" t="n">
-        <v>60.3667</v>
+        <v>3744.416666666671</v>
       </c>
       <c r="M37" t="n">
-        <v>70.3262166666667</v>
+        <v>3807.833333333329</v>
       </c>
       <c r="N37" t="n">
-        <v>76.1755416666667</v>
+        <v>3840.75</v>
       </c>
       <c r="O37" t="n">
-        <v>78.56319499999999</v>
+        <v>3916.333333333329</v>
       </c>
       <c r="P37" t="n">
-        <v>78.7491416666667</v>
+        <v>3912.083333333329</v>
       </c>
       <c r="Q37" t="n">
-        <v>75.93556944444441</v>
+        <v>3973.333333333329</v>
       </c>
       <c r="R37" t="n">
-        <v>79.17387606421359</v>
+        <v>4016.25</v>
       </c>
       <c r="S37" t="n">
-        <v>75.554109451431</v>
+        <v>4092.5</v>
       </c>
       <c r="T37" t="n">
-        <v>72.1008350178621</v>
+        <v>4103.25</v>
       </c>
       <c r="U37" t="n">
-        <v>67.31763812428571</v>
+        <v>4056.166666666671</v>
       </c>
       <c r="V37" t="n">
-        <v>69.17531981622599</v>
+        <v>4054.166666666671</v>
       </c>
       <c r="W37" t="n">
-        <v>77.35201229757901</v>
+        <v>4139.333333333329</v>
       </c>
       <c r="X37" t="n">
-        <v>79.23315170454549</v>
+        <v>4184.916666666671</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.81076997104559</v>
+        <v>4058.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>84.52960175735291</v>
+        <v>4033</v>
       </c>
       <c r="AA37" t="n">
-        <v>86.1228788982654</v>
+        <v>4027.25</v>
       </c>
       <c r="AB37" t="n">
-        <v>87.9221638089727</v>
+        <v>4037.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>98.17845332652711</v>
+        <v>4067.75</v>
       </c>
       <c r="AD37" t="n">
-        <v>101.504369498594</v>
+        <v>4058.69457885305</v>
       </c>
       <c r="AE37" t="n">
-        <v>103.373899058337</v>
+        <v>4050.5799859191</v>
       </c>
       <c r="AF37" t="s"/>
     </row>
     <row r="38" spans="1:32">
       <c r="A38" s="1" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
         <v>105</v>
@@ -4480,88 +4444,88 @@
         <v>34</v>
       </c>
       <c r="F38" t="n">
-        <v>10.8416833333333</v>
+        <v>716.08331420526</v>
       </c>
       <c r="G38" t="n">
-        <v>10.8416833333333</v>
+        <v>716.249980867475</v>
       </c>
       <c r="H38" t="n">
-        <v>10.8416833333333</v>
+        <v>717.666647496299</v>
       </c>
       <c r="I38" t="n">
-        <v>10.8218833333333</v>
+        <v>804.690820071722</v>
       </c>
       <c r="J38" t="n">
-        <v>12.8095583333333</v>
+        <v>921.021666666667</v>
       </c>
       <c r="K38" t="n">
-        <v>17.3624916666667</v>
+        <v>1259.97916666667</v>
       </c>
       <c r="L38" t="n">
-        <v>20.8375666666667</v>
+        <v>3298.33333333333</v>
       </c>
       <c r="M38" t="n">
-        <v>39.0077333333333</v>
+        <v>7102.025</v>
       </c>
       <c r="N38" t="n">
-        <v>47.7038333333333</v>
+        <v>7887.64333333333</v>
       </c>
       <c r="O38" t="n">
-        <v>48.3779583333333</v>
+        <v>8954.58333333333</v>
       </c>
       <c r="P38" t="n">
-        <v>46.93706666666669</v>
+        <v>10056.3333333333</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.648375</v>
+        <v>10569.0375</v>
       </c>
       <c r="R38" t="n">
-        <v>42.64994166666671</v>
+        <v>10585.375</v>
       </c>
       <c r="S38" t="n">
-        <v>41.0118205059349</v>
+        <v>10655.1666666667</v>
       </c>
       <c r="T38" t="n">
-        <v>40.1528999454205</v>
+        <v>10159.9391666667</v>
       </c>
       <c r="U38" t="n">
-        <v>37.3162568055556</v>
+        <v>9603.160306245021</v>
       </c>
       <c r="V38" t="n">
-        <v>36.57459166666671</v>
+        <v>8744.22408816097</v>
       </c>
       <c r="W38" t="n">
-        <v>42.9041083333333</v>
+        <v>8516.052615426079</v>
       </c>
       <c r="X38" t="n">
-        <v>45.9642614008139</v>
+        <v>8258.770086203349</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.1439013172043</v>
+        <v>8030.055</v>
       </c>
       <c r="Z38" t="n">
-        <v>47.00447914225679</v>
+        <v>8007.7575</v>
       </c>
       <c r="AA38" t="n">
-        <v>48.4380590087726</v>
+        <v>7860.1375</v>
       </c>
       <c r="AB38" t="n">
-        <v>53.654058312852</v>
+        <v>8048.96033333333</v>
       </c>
       <c r="AC38" t="n">
-        <v>64.46210827252941</v>
+        <v>8147.90795593261</v>
       </c>
       <c r="AD38" t="n">
-        <v>69.9140658252997</v>
+        <v>8179.26833333333</v>
       </c>
       <c r="AE38" t="n">
-        <v>68.866667859063</v>
+        <v>8351.526074730309</v>
       </c>
       <c r="AF38" t="s"/>
     </row>
     <row r="39" spans="1:32">
       <c r="A39" s="1" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
         <v>107</v>
@@ -4576,88 +4540,88 @@
         <v>34</v>
       </c>
       <c r="F39" t="n">
-        <v>1266.58333333333</v>
+        <v>1712.79083333333</v>
       </c>
       <c r="G39" t="n">
-        <v>2689</v>
+        <v>1741.36333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>2545.25</v>
+        <v>1680.07333333333</v>
       </c>
       <c r="I39" t="n">
-        <v>2450.83333333333</v>
+        <v>1621.41333333333</v>
       </c>
       <c r="J39" t="n">
-        <v>2624.08333333333</v>
+        <v>1571.44416666667</v>
       </c>
       <c r="K39" t="n">
-        <v>2946.25</v>
+        <v>1539.45</v>
       </c>
       <c r="L39" t="n">
-        <v>3744.416666666671</v>
+        <v>1516.13166666667</v>
       </c>
       <c r="M39" t="n">
-        <v>3807.833333333329</v>
+        <v>1507.5</v>
       </c>
       <c r="N39" t="n">
-        <v>3840.75</v>
+        <v>1507.5</v>
       </c>
       <c r="O39" t="n">
-        <v>3916.333333333329</v>
+        <v>1507.5</v>
       </c>
       <c r="P39" t="n">
-        <v>3912.083333333329</v>
+        <v>1507.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>3973.333333333329</v>
+        <v>1507.5</v>
       </c>
       <c r="R39" t="n">
-        <v>4016.25</v>
+        <v>1507.5</v>
       </c>
       <c r="S39" t="n">
-        <v>4092.5</v>
+        <v>1507.5</v>
       </c>
       <c r="T39" t="n">
-        <v>4103.25</v>
+        <v>1507.5</v>
       </c>
       <c r="U39" t="n">
-        <v>4056.166666666671</v>
+        <v>1507.5</v>
       </c>
       <c r="V39" t="n">
-        <v>4054.166666666671</v>
+        <v>1507.5</v>
       </c>
       <c r="W39" t="n">
-        <v>4139.333333333329</v>
+        <v>1507.5</v>
       </c>
       <c r="X39" t="n">
-        <v>4184.916666666671</v>
+        <v>1507.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>4058.5</v>
+        <v>1507.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>4033</v>
+        <v>1507.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>4027.25</v>
+        <v>1507.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>4037.5</v>
+        <v>1507.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>4067.75</v>
+        <v>1507.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>4058.69457885305</v>
+        <v>1507.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>4050.5799859191</v>
+        <v>1507.5</v>
       </c>
       <c r="AF39" t="s"/>
     </row>
     <row r="40" spans="1:32">
       <c r="A40" s="1" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
         <v>109</v>
@@ -4672,88 +4636,88 @@
         <v>34</v>
       </c>
       <c r="F40" t="n">
-        <v>716.08331420526</v>
+        <v>46.4387280920379</v>
       </c>
       <c r="G40" t="n">
-        <v>716.249980867475</v>
+        <v>46.4387280920379</v>
       </c>
       <c r="H40" t="n">
-        <v>717.666647496299</v>
+        <v>46.4387280920379</v>
       </c>
       <c r="I40" t="n">
-        <v>804.690820071722</v>
+        <v>49.8383333333333</v>
       </c>
       <c r="J40" t="n">
-        <v>921.021666666667</v>
+        <v>46.8375</v>
       </c>
       <c r="K40" t="n">
-        <v>1259.97916666667</v>
+        <v>50.57</v>
       </c>
       <c r="L40" t="n">
-        <v>3298.33333333333</v>
+        <v>41.5075</v>
       </c>
       <c r="M40" t="n">
-        <v>7102.025</v>
+        <v>41.9025</v>
       </c>
       <c r="N40" t="n">
-        <v>7887.64333333333</v>
+        <v>40.9025</v>
       </c>
       <c r="O40" t="n">
-        <v>8954.58333333333</v>
+        <v>48.591908993784</v>
       </c>
       <c r="P40" t="n">
-        <v>10056.3333333333</v>
+        <v>61.7541666666667</v>
       </c>
       <c r="Q40" t="n">
-        <v>10569.0375</v>
+        <v>59.3788333333333</v>
       </c>
       <c r="R40" t="n">
-        <v>10585.375</v>
+        <v>54.9058333333333</v>
       </c>
       <c r="S40" t="n">
-        <v>10655.1666666667</v>
+        <v>57.0958333333333</v>
       </c>
       <c r="T40" t="n">
-        <v>10159.9391666667</v>
+        <v>58.0133333333333</v>
       </c>
       <c r="U40" t="n">
-        <v>9603.160306245021</v>
+        <v>61.2722222222222</v>
       </c>
       <c r="V40" t="n">
-        <v>8744.22408816097</v>
+        <v>63.2075</v>
       </c>
       <c r="W40" t="n">
-        <v>8516.052615426079</v>
+        <v>68.2866666666667</v>
       </c>
       <c r="X40" t="n">
-        <v>8258.770086203349</v>
+        <v>71.40333333333341</v>
       </c>
       <c r="Y40" t="n">
-        <v>8030.055</v>
+        <v>72.2266666666667</v>
       </c>
       <c r="Z40" t="n">
-        <v>8007.7575</v>
+        <v>73.51477207977209</v>
       </c>
       <c r="AA40" t="n">
-        <v>7860.1375</v>
+        <v>77.52</v>
       </c>
       <c r="AB40" t="n">
-        <v>8048.96033333333</v>
+        <v>83.8925</v>
       </c>
       <c r="AC40" t="n">
-        <v>8147.90795593261</v>
+        <v>86.1883665716999</v>
       </c>
       <c r="AD40" t="n">
-        <v>8179.26833333333</v>
+        <v>94.4272435897436</v>
       </c>
       <c r="AE40" t="n">
-        <v>8351.526074730309</v>
+        <v>112.706666666667</v>
       </c>
       <c r="AF40" t="s"/>
     </row>
     <row r="41" spans="1:32">
       <c r="A41" s="1" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
         <v>111</v>
@@ -4768,88 +4732,88 @@
         <v>34</v>
       </c>
       <c r="F41" t="n">
-        <v>1712.79083333333</v>
+        <v>43.829625</v>
       </c>
       <c r="G41" t="n">
-        <v>1741.36333333333</v>
+        <v>48.3221675</v>
       </c>
       <c r="H41" t="n">
-        <v>1680.07333333333</v>
+        <v>49.4151416666667</v>
       </c>
       <c r="I41" t="n">
-        <v>1621.41333333333</v>
+        <v>51.2515891666667</v>
       </c>
       <c r="J41" t="n">
-        <v>1571.44416666667</v>
+        <v>55.2714441666667</v>
       </c>
       <c r="K41" t="n">
-        <v>1539.45</v>
+        <v>58.99460500000001</v>
       </c>
       <c r="L41" t="n">
-        <v>1516.13166666667</v>
+        <v>64.45011833333331</v>
       </c>
       <c r="M41" t="n">
-        <v>1507.5</v>
+        <v>70.63545000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>1507.5</v>
+        <v>77.00511666666669</v>
       </c>
       <c r="O41" t="n">
-        <v>1507.5</v>
+        <v>89.3830133333333</v>
       </c>
       <c r="P41" t="n">
-        <v>1507.5</v>
+        <v>95.662065</v>
       </c>
       <c r="Q41" t="n">
-        <v>1507.5</v>
+        <v>96.5209508333333</v>
       </c>
       <c r="R41" t="n">
-        <v>1507.5</v>
+        <v>101.1944575</v>
       </c>
       <c r="S41" t="n">
-        <v>1507.5</v>
+        <v>100.498051666667</v>
       </c>
       <c r="T41" t="n">
-        <v>1507.5</v>
+        <v>103.914445833333</v>
       </c>
       <c r="U41" t="n">
-        <v>1507.5</v>
+        <v>110.623233333333</v>
       </c>
       <c r="V41" t="n">
-        <v>1507.5</v>
+        <v>108.333762719298</v>
       </c>
       <c r="W41" t="n">
-        <v>1507.5</v>
+        <v>114.944783333333</v>
       </c>
       <c r="X41" t="n">
-        <v>1507.5</v>
+        <v>113.064480448821</v>
       </c>
       <c r="Y41" t="n">
-        <v>1507.5</v>
+        <v>110.565207851397</v>
       </c>
       <c r="Z41" t="n">
-        <v>1507.5</v>
+        <v>127.60335350681</v>
       </c>
       <c r="AA41" t="n">
-        <v>1507.5</v>
+        <v>129.069030932888</v>
       </c>
       <c r="AB41" t="n">
-        <v>1507.5</v>
+        <v>130.564685218829</v>
       </c>
       <c r="AC41" t="n">
-        <v>1507.5</v>
+        <v>135.856912797089</v>
       </c>
       <c r="AD41" t="n">
-        <v>1507.5</v>
+        <v>145.581667492026</v>
       </c>
       <c r="AE41" t="n">
-        <v>1507.5</v>
+        <v>152.44737947021</v>
       </c>
       <c r="AF41" t="s"/>
     </row>
     <row r="42" spans="1:32">
       <c r="A42" s="1" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B42" t="s">
         <v>113</v>
@@ -4864,88 +4828,88 @@
         <v>34</v>
       </c>
       <c r="F42" t="n">
-        <v>46.4387280920379</v>
+        <v>2.85201416666667</v>
       </c>
       <c r="G42" t="n">
-        <v>46.4387280920379</v>
+        <v>3.26774158333333</v>
       </c>
       <c r="H42" t="n">
-        <v>46.4387280920379</v>
+        <v>3.55079833333333</v>
       </c>
       <c r="I42" t="n">
-        <v>49.8383333333333</v>
+        <v>3.627085</v>
       </c>
       <c r="J42" t="n">
-        <v>46.8375</v>
+        <v>4.29934916666667</v>
       </c>
       <c r="K42" t="n">
-        <v>50.57</v>
+        <v>4.60796166666667</v>
       </c>
       <c r="L42" t="n">
-        <v>41.5075</v>
+        <v>5.52828416666667</v>
       </c>
       <c r="M42" t="n">
-        <v>41.9025</v>
+        <v>6.10948416666667</v>
       </c>
       <c r="N42" t="n">
-        <v>40.9025</v>
+        <v>6.93982833333333</v>
       </c>
       <c r="O42" t="n">
-        <v>48.591908993784</v>
+        <v>8.60918083333333</v>
       </c>
       <c r="P42" t="n">
-        <v>61.7541666666667</v>
+        <v>10.5407466666667</v>
       </c>
       <c r="Q42" t="n">
-        <v>59.3788333333333</v>
+        <v>7.56474916666667</v>
       </c>
       <c r="R42" t="n">
-        <v>54.9058333333333</v>
+        <v>6.4596925</v>
       </c>
       <c r="S42" t="n">
-        <v>57.0958333333333</v>
+        <v>6.35932833333333</v>
       </c>
       <c r="T42" t="n">
-        <v>58.0133333333333</v>
+        <v>6.77154916666667</v>
       </c>
       <c r="U42" t="n">
-        <v>61.2722222222222</v>
+        <v>7.045364999999999</v>
       </c>
       <c r="V42" t="n">
-        <v>63.2075</v>
+        <v>8.26122333333333</v>
       </c>
       <c r="W42" t="n">
-        <v>68.2866666666667</v>
+        <v>8.47367415824888</v>
       </c>
       <c r="X42" t="n">
-        <v>71.40333333333341</v>
+        <v>7.32122196115288</v>
       </c>
       <c r="Y42" t="n">
-        <v>72.2266666666667</v>
+        <v>7.261132132327349</v>
       </c>
       <c r="Z42" t="n">
-        <v>73.51477207977209</v>
+        <v>8.209968626593311</v>
       </c>
       <c r="AA42" t="n">
-        <v>77.52</v>
+        <v>9.655056069135259</v>
       </c>
       <c r="AB42" t="n">
-        <v>83.8925</v>
+        <v>10.8526555687831</v>
       </c>
       <c r="AC42" t="n">
-        <v>86.1883665716999</v>
+        <v>12.7589308811644</v>
       </c>
       <c r="AD42" t="n">
-        <v>94.4272435897436</v>
+        <v>14.7096108855267</v>
       </c>
       <c r="AE42" t="n">
-        <v>112.706666666667</v>
+        <v>13.3337814606369</v>
       </c>
       <c r="AF42" t="s"/>
     </row>
     <row r="43" spans="1:32">
       <c r="A43" s="1" t="n">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
         <v>115</v>
@@ -4960,88 +4924,88 @@
         <v>34</v>
       </c>
       <c r="F43" t="n">
-        <v>43.829625</v>
+        <v>372.793333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>48.3221675</v>
+        <v>382.7565</v>
       </c>
       <c r="H43" t="n">
-        <v>49.4151416666667</v>
+        <v>613.467166666667</v>
       </c>
       <c r="I43" t="n">
-        <v>51.2515891666667</v>
+        <v>853.1263333333329</v>
       </c>
       <c r="J43" t="n">
-        <v>55.2714441666667</v>
+        <v>812.2503333333329</v>
       </c>
       <c r="K43" t="n">
-        <v>58.99460500000001</v>
+        <v>1018.17716666667</v>
       </c>
       <c r="L43" t="n">
-        <v>64.45011833333331</v>
+        <v>1088.27966666667</v>
       </c>
       <c r="M43" t="n">
-        <v>70.63545000000001</v>
+        <v>1256.755</v>
       </c>
       <c r="N43" t="n">
-        <v>77.00511666666669</v>
+        <v>1353.49616666667</v>
       </c>
       <c r="O43" t="n">
-        <v>89.3830133333333</v>
+        <v>1317.69883333333</v>
       </c>
       <c r="P43" t="n">
-        <v>95.662065</v>
+        <v>1366.39116666667</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.5209508333333</v>
+        <v>1238.32766666667</v>
       </c>
       <c r="R43" t="n">
-        <v>101.1944575</v>
+        <v>1868.85783333333</v>
       </c>
       <c r="S43" t="n">
-        <v>100.498051666667</v>
+        <v>2003.02583333333</v>
       </c>
       <c r="T43" t="n">
-        <v>103.914445833333</v>
+        <v>2142.30166666667</v>
       </c>
       <c r="U43" t="n">
-        <v>110.623233333333</v>
+        <v>1873.87666666667</v>
       </c>
       <c r="V43" t="n">
-        <v>108.333762719298</v>
+        <v>1708.37083333333</v>
       </c>
       <c r="W43" t="n">
-        <v>114.944783333333</v>
+        <v>1956.20583333333</v>
       </c>
       <c r="X43" t="n">
-        <v>113.064480448821</v>
+        <v>2089.95</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.565207851397</v>
+        <v>2025.1175</v>
       </c>
       <c r="Z43" t="n">
-        <v>127.60335350681</v>
+        <v>2194.96666666667</v>
       </c>
       <c r="AA43" t="n">
-        <v>129.069030932888</v>
+        <v>2206.91416666667</v>
       </c>
       <c r="AB43" t="n">
-        <v>130.564685218829</v>
+        <v>2414.81166666667</v>
       </c>
       <c r="AC43" t="n">
-        <v>135.856912797089</v>
+        <v>2933.50833333333</v>
       </c>
       <c r="AD43" t="n">
-        <v>145.581667492026</v>
+        <v>3176.53916666667</v>
       </c>
       <c r="AE43" t="n">
-        <v>152.44737947021</v>
+        <v>3116.11</v>
       </c>
       <c r="AF43" t="s"/>
     </row>
     <row r="44" spans="1:32">
       <c r="A44" s="1" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B44" t="s">
         <v>117</v>
@@ -5056,88 +5020,88 @@
         <v>34</v>
       </c>
       <c r="F44" t="n">
-        <v>2.85201416666667</v>
+        <v>264.691800750579</v>
       </c>
       <c r="G44" t="n">
-        <v>3.26774158333333</v>
+        <v>283.162579500018</v>
       </c>
       <c r="H44" t="n">
-        <v>3.55079833333333</v>
+        <v>555.204695655697</v>
       </c>
       <c r="I44" t="n">
-        <v>3.627085</v>
+        <v>499.14842590131</v>
       </c>
       <c r="J44" t="n">
-        <v>4.29934916666667</v>
+        <v>511.552430272516</v>
       </c>
       <c r="K44" t="n">
-        <v>4.60796166666667</v>
+        <v>583.669372353395</v>
       </c>
       <c r="L44" t="n">
-        <v>5.52828416666667</v>
+        <v>589.951774567332</v>
       </c>
       <c r="M44" t="n">
-        <v>6.10948416666667</v>
+        <v>615.6991319738059</v>
       </c>
       <c r="N44" t="n">
-        <v>6.93982833333333</v>
+        <v>711.976274430833</v>
       </c>
       <c r="O44" t="n">
-        <v>8.60918083333333</v>
+        <v>733.03850707</v>
       </c>
       <c r="P44" t="n">
-        <v>10.5407466666667</v>
+        <v>696.988203611667</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.56474916666667</v>
+        <v>581.200313864167</v>
       </c>
       <c r="R44" t="n">
-        <v>6.4596925</v>
+        <v>528.284809305</v>
       </c>
       <c r="S44" t="n">
-        <v>6.35932833333333</v>
+        <v>527.46814284</v>
       </c>
       <c r="T44" t="n">
-        <v>6.77154916666667</v>
+        <v>522.890109610833</v>
       </c>
       <c r="U44" t="n">
-        <v>7.045364999999999</v>
+        <v>479.2667825875</v>
       </c>
       <c r="V44" t="n">
-        <v>8.26122333333333</v>
+        <v>447.805255560773</v>
       </c>
       <c r="W44" t="n">
-        <v>8.47367415824888</v>
+        <v>472.186290754893</v>
       </c>
       <c r="X44" t="n">
-        <v>7.32122196115288</v>
+        <v>495.277021572396</v>
       </c>
       <c r="Y44" t="n">
-        <v>7.261132132327349</v>
+        <v>471.8661140917</v>
       </c>
       <c r="Z44" t="n">
-        <v>8.209968626593311</v>
+        <v>510.52713590197</v>
       </c>
       <c r="AA44" t="n">
-        <v>9.655056069135259</v>
+        <v>494.04003744699</v>
       </c>
       <c r="AB44" t="n">
-        <v>10.8526555687831</v>
+        <v>494.414952864937</v>
       </c>
       <c r="AC44" t="n">
-        <v>12.7589308811644</v>
+        <v>591.449507501328</v>
       </c>
       <c r="AD44" t="n">
-        <v>14.7096108855267</v>
+        <v>593.008170424934</v>
       </c>
       <c r="AE44" t="n">
-        <v>13.3337814606369</v>
+        <v>582.094550149641</v>
       </c>
       <c r="AF44" t="s"/>
     </row>
     <row r="45" spans="1:32">
       <c r="A45" s="1" t="n">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B45" t="s">
         <v>119</v>
@@ -5152,88 +5116,88 @@
         <v>34</v>
       </c>
       <c r="F45" t="n">
-        <v>372.793333333333</v>
+        <v>6.10453333333333</v>
       </c>
       <c r="G45" t="n">
-        <v>382.7565</v>
+        <v>6.15696666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>613.467166666667</v>
+        <v>5.9749125</v>
       </c>
       <c r="I45" t="n">
-        <v>853.1263333333329</v>
+        <v>5.66704166666667</v>
       </c>
       <c r="J45" t="n">
-        <v>812.2503333333329</v>
+        <v>5.91756666666667</v>
       </c>
       <c r="K45" t="n">
-        <v>1018.17716666667</v>
+        <v>6.24183333333333</v>
       </c>
       <c r="L45" t="n">
-        <v>1088.27966666667</v>
+        <v>6.343158333333331</v>
       </c>
       <c r="M45" t="n">
-        <v>1256.755</v>
+        <v>6.28579166666667</v>
       </c>
       <c r="N45" t="n">
-        <v>1353.49616666667</v>
+        <v>6.516725</v>
       </c>
       <c r="O45" t="n">
-        <v>1317.69883333333</v>
+        <v>6.74890833333333</v>
       </c>
       <c r="P45" t="n">
-        <v>1366.39116666667</v>
+        <v>6.64208333333333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1238.32766666667</v>
+        <v>6.138925</v>
       </c>
       <c r="R45" t="n">
-        <v>1868.85783333333</v>
+        <v>5.805833333333339</v>
       </c>
       <c r="S45" t="n">
-        <v>2003.02583333333</v>
+        <v>5.81816666666667</v>
       </c>
       <c r="T45" t="n">
-        <v>2142.30166666667</v>
+        <v>5.84294166666667</v>
       </c>
       <c r="U45" t="n">
-        <v>1873.87666666667</v>
+        <v>5.61688333333333</v>
       </c>
       <c r="V45" t="n">
-        <v>1708.37083333333</v>
+        <v>5.44145</v>
       </c>
       <c r="W45" t="n">
-        <v>1956.20583333333</v>
+        <v>5.57636666666667</v>
       </c>
       <c r="X45" t="n">
-        <v>2089.95</v>
+        <v>5.63488333333333</v>
       </c>
       <c r="Y45" t="n">
-        <v>2025.1175</v>
+        <v>5.44410833333333</v>
       </c>
       <c r="Z45" t="n">
-        <v>2194.96666666667</v>
+        <v>640.653416666667</v>
       </c>
       <c r="AA45" t="n">
-        <v>2206.91416666667</v>
+        <v>933.5704563568789</v>
       </c>
       <c r="AB45" t="n">
-        <v>2414.81166666667</v>
+        <v>984.3457475600459</v>
       </c>
       <c r="AC45" t="n">
-        <v>2933.50833333333</v>
+        <v>1162.61532862554</v>
       </c>
       <c r="AD45" t="n">
-        <v>3176.53916666667</v>
+        <v>1234.86951666667</v>
       </c>
       <c r="AE45" t="n">
-        <v>3116.11</v>
+        <v>1360.35870704085</v>
       </c>
       <c r="AF45" t="s"/>
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="1" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
         <v>121</v>
@@ -5248,88 +5212,88 @@
         <v>34</v>
       </c>
       <c r="F46" t="n">
-        <v>264.691800750579</v>
+        <v>2.51655416666667</v>
       </c>
       <c r="G46" t="n">
-        <v>283.162579500018</v>
+        <v>3.87423666666667</v>
       </c>
       <c r="H46" t="n">
-        <v>555.204695655697</v>
+        <v>6.038588333333331</v>
       </c>
       <c r="I46" t="n">
-        <v>499.14842590131</v>
+        <v>9.024333333333329</v>
       </c>
       <c r="J46" t="n">
-        <v>511.552430272516</v>
+        <v>11.29375</v>
       </c>
       <c r="K46" t="n">
-        <v>583.669372353395</v>
+        <v>11.5435833333333</v>
       </c>
       <c r="L46" t="n">
-        <v>589.951774567332</v>
+        <v>11.8745833333333</v>
       </c>
       <c r="M46" t="n">
-        <v>615.6991319738059</v>
+        <v>12.7751116666667</v>
       </c>
       <c r="N46" t="n">
-        <v>711.976274430833</v>
+        <v>15.22725</v>
       </c>
       <c r="O46" t="n">
-        <v>733.03850707</v>
+        <v>20.7036408333333</v>
       </c>
       <c r="P46" t="n">
-        <v>696.988203611667</v>
+        <v>23.6779566666667</v>
       </c>
       <c r="Q46" t="n">
-        <v>581.200313864167</v>
+        <v>23.7822675</v>
       </c>
       <c r="R46" t="n">
-        <v>528.284809305</v>
+        <v>22.5813425</v>
       </c>
       <c r="S46" t="n">
-        <v>527.46814284</v>
+        <v>23.060965</v>
       </c>
       <c r="T46" t="n">
-        <v>522.890109610833</v>
+        <v>25.4007791666667</v>
       </c>
       <c r="U46" t="n">
-        <v>479.2667825875</v>
+        <v>25.8403414502165</v>
       </c>
       <c r="V46" t="n">
-        <v>447.805255560773</v>
+        <v>24.3006424728653</v>
       </c>
       <c r="W46" t="n">
-        <v>472.186290754893</v>
+        <v>27.518299963925</v>
       </c>
       <c r="X46" t="n">
-        <v>495.277021572396</v>
+        <v>33.9600988006908</v>
       </c>
       <c r="Y46" t="n">
-        <v>471.8661140917</v>
+        <v>29.0675999319775</v>
       </c>
       <c r="Z46" t="n">
-        <v>510.52713590197</v>
+        <v>28.3729844798921</v>
       </c>
       <c r="AA46" t="n">
-        <v>494.04003744699</v>
+        <v>30.1041110929498</v>
       </c>
       <c r="AB46" t="n">
-        <v>494.414952864937</v>
+        <v>31.3526877009443</v>
       </c>
       <c r="AC46" t="n">
-        <v>591.449507501328</v>
+        <v>39.9824741465406</v>
       </c>
       <c r="AD46" t="n">
-        <v>593.008170424934</v>
+        <v>63.0562327310371</v>
       </c>
       <c r="AE46" t="n">
-        <v>582.094550149641</v>
+        <v>63.584322913399</v>
       </c>
       <c r="AF46" t="s"/>
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="1" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
         <v>123</v>
@@ -5344,88 +5308,88 @@
         <v>34</v>
       </c>
       <c r="F47" t="n">
-        <v>6.10453333333333</v>
+        <v>8.702674999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>6.15696666666667</v>
+        <v>12.0805833333333</v>
       </c>
       <c r="H47" t="n">
-        <v>5.9749125</v>
+        <v>12.3575</v>
       </c>
       <c r="I47" t="n">
-        <v>5.66704166666667</v>
+        <v>12.9768333333333</v>
       </c>
       <c r="J47" t="n">
-        <v>5.91756666666667</v>
+        <v>13.7221666666667</v>
       </c>
       <c r="K47" t="n">
-        <v>6.24183333333333</v>
+        <v>15.1853333333333</v>
       </c>
       <c r="L47" t="n">
-        <v>6.343158333333331</v>
+        <v>18.8475833333333</v>
       </c>
       <c r="M47" t="n">
-        <v>6.28579166666667</v>
+        <v>20.9514166666667</v>
       </c>
       <c r="N47" t="n">
-        <v>6.516725</v>
+        <v>23.8923333333333</v>
       </c>
       <c r="O47" t="n">
-        <v>6.74890833333333</v>
+        <v>25.5629166666667</v>
       </c>
       <c r="P47" t="n">
-        <v>6.64208333333333</v>
+        <v>27.1739166666667</v>
       </c>
       <c r="Q47" t="n">
-        <v>6.138925</v>
+        <v>26.303</v>
       </c>
       <c r="R47" t="n">
-        <v>5.805833333333339</v>
+        <v>26.42</v>
       </c>
       <c r="S47" t="n">
-        <v>5.81816666666667</v>
+        <v>26.5528333333333</v>
       </c>
       <c r="T47" t="n">
-        <v>5.84294166666667</v>
+        <v>26.86</v>
       </c>
       <c r="U47" t="n">
-        <v>5.61688333333333</v>
+        <v>25.8586666666667</v>
       </c>
       <c r="V47" t="n">
-        <v>5.44145</v>
+        <v>23.8203333333333</v>
       </c>
       <c r="W47" t="n">
-        <v>5.57636666666667</v>
+        <v>26.2365833333333</v>
       </c>
       <c r="X47" t="n">
-        <v>5.63488333333333</v>
+        <v>27.5894166666667</v>
       </c>
       <c r="Y47" t="n">
-        <v>5.44410833333333</v>
+        <v>28.1118333333333</v>
       </c>
       <c r="Z47" t="n">
-        <v>640.653416666667</v>
+        <v>29.662</v>
       </c>
       <c r="AA47" t="n">
-        <v>933.5704563568789</v>
+        <v>30.0681666666667</v>
       </c>
       <c r="AB47" t="n">
-        <v>984.3457475600459</v>
+        <v>30.2725</v>
       </c>
       <c r="AC47" t="n">
-        <v>1162.61532862554</v>
+        <v>32.4671666666667</v>
       </c>
       <c r="AD47" t="n">
-        <v>1234.86951666667</v>
+        <v>35.2370833333333</v>
       </c>
       <c r="AE47" t="n">
-        <v>1360.35870704085</v>
+        <v>35.79441666666671</v>
       </c>
       <c r="AF47" t="s"/>
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="1" t="n">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B48" t="s">
         <v>125</v>
@@ -5440,88 +5404,88 @@
         <v>34</v>
       </c>
       <c r="F48" t="n">
-        <v>2.51655416666667</v>
+        <v>3.60327541666667</v>
       </c>
       <c r="G48" t="n">
-        <v>3.87423666666667</v>
+        <v>4.40277833333333</v>
       </c>
       <c r="H48" t="n">
-        <v>6.038588333333331</v>
+        <v>8.736405</v>
       </c>
       <c r="I48" t="n">
-        <v>9.024333333333329</v>
+        <v>15.2837416666667</v>
       </c>
       <c r="J48" t="n">
-        <v>11.29375</v>
+        <v>15.3084666666667</v>
       </c>
       <c r="K48" t="n">
-        <v>11.5435833333333</v>
+        <v>16.444175</v>
       </c>
       <c r="L48" t="n">
-        <v>11.8745833333333</v>
+        <v>31.0726833333333</v>
       </c>
       <c r="M48" t="n">
-        <v>12.7751116666667</v>
+        <v>44.0881416666667</v>
       </c>
       <c r="N48" t="n">
-        <v>15.22725</v>
+        <v>59.5438083333333</v>
       </c>
       <c r="O48" t="n">
-        <v>20.7036408333333</v>
+        <v>72.1973333333333</v>
       </c>
       <c r="P48" t="n">
-        <v>23.6779566666667</v>
+        <v>76.6866083333333</v>
       </c>
       <c r="Q48" t="n">
-        <v>23.7822675</v>
+        <v>97.432475</v>
       </c>
       <c r="R48" t="n">
-        <v>22.5813425</v>
+        <v>108.897508333333</v>
       </c>
       <c r="S48" t="n">
-        <v>23.060965</v>
+        <v>118.419741666667</v>
       </c>
       <c r="T48" t="n">
-        <v>25.4007791666667</v>
+        <v>136.013541666667</v>
       </c>
       <c r="U48" t="n">
-        <v>25.8403414502165</v>
+        <v>139.957286620718</v>
       </c>
       <c r="V48" t="n">
-        <v>24.3006424728653</v>
+        <v>140.522692135642</v>
       </c>
       <c r="W48" t="n">
-        <v>27.518299963925</v>
+        <v>141.16694375</v>
       </c>
       <c r="X48" t="n">
-        <v>33.9600988006908</v>
+        <v>150.486655869408</v>
       </c>
       <c r="Y48" t="n">
-        <v>29.0675999319775</v>
+        <v>156.515451111111</v>
       </c>
       <c r="Z48" t="n">
-        <v>28.3729844798921</v>
+        <v>249.105950100379</v>
       </c>
       <c r="AA48" t="n">
-        <v>30.1041110929498</v>
+        <v>364.407287288297</v>
       </c>
       <c r="AB48" t="n">
-        <v>31.3526877009443</v>
+        <v>424.895808098656</v>
       </c>
       <c r="AC48" t="n">
-        <v>39.9824741465406</v>
+        <v>499.605833333333</v>
       </c>
       <c r="AD48" t="n">
-        <v>63.0562327310371</v>
+        <v>718.005</v>
       </c>
       <c r="AE48" t="n">
-        <v>63.584322913399</v>
+        <v>730.2725</v>
       </c>
       <c r="AF48" t="s"/>
     </row>
     <row r="49" spans="1:32">
       <c r="A49" s="1" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
         <v>127</v>
@@ -5536,88 +5500,88 @@
         <v>34</v>
       </c>
       <c r="F49" t="n">
-        <v>8.702674999999999</v>
+        <v>264.691800750579</v>
       </c>
       <c r="G49" t="n">
-        <v>12.0805833333333</v>
+        <v>283.162579500018</v>
       </c>
       <c r="H49" t="n">
-        <v>12.3575</v>
+        <v>555.204695655697</v>
       </c>
       <c r="I49" t="n">
-        <v>12.9768333333333</v>
+        <v>499.14842590131</v>
       </c>
       <c r="J49" t="n">
-        <v>13.7221666666667</v>
+        <v>511.552430272516</v>
       </c>
       <c r="K49" t="n">
-        <v>15.1853333333333</v>
+        <v>583.669372353395</v>
       </c>
       <c r="L49" t="n">
-        <v>18.8475833333333</v>
+        <v>589.951774567332</v>
       </c>
       <c r="M49" t="n">
-        <v>20.9514166666667</v>
+        <v>615.6991319738059</v>
       </c>
       <c r="N49" t="n">
-        <v>23.8923333333333</v>
+        <v>711.976274430833</v>
       </c>
       <c r="O49" t="n">
-        <v>25.5629166666667</v>
+        <v>733.03850707</v>
       </c>
       <c r="P49" t="n">
-        <v>27.1739166666667</v>
+        <v>696.988203611667</v>
       </c>
       <c r="Q49" t="n">
-        <v>26.303</v>
+        <v>581.200313864167</v>
       </c>
       <c r="R49" t="n">
-        <v>26.42</v>
+        <v>528.284809305</v>
       </c>
       <c r="S49" t="n">
-        <v>26.5528333333333</v>
+        <v>527.46814284</v>
       </c>
       <c r="T49" t="n">
-        <v>26.86</v>
+        <v>522.890109610833</v>
       </c>
       <c r="U49" t="n">
-        <v>25.8586666666667</v>
+        <v>479.2667825875</v>
       </c>
       <c r="V49" t="n">
-        <v>23.8203333333333</v>
+        <v>447.805255560773</v>
       </c>
       <c r="W49" t="n">
-        <v>26.2365833333333</v>
+        <v>472.186290754893</v>
       </c>
       <c r="X49" t="n">
-        <v>27.5894166666667</v>
+        <v>495.277021572396</v>
       </c>
       <c r="Y49" t="n">
-        <v>28.1118333333333</v>
+        <v>471.8661140917</v>
       </c>
       <c r="Z49" t="n">
-        <v>29.662</v>
+        <v>510.52713590197</v>
       </c>
       <c r="AA49" t="n">
-        <v>30.0681666666667</v>
+        <v>494.04003744699</v>
       </c>
       <c r="AB49" t="n">
-        <v>30.2725</v>
+        <v>494.414952864937</v>
       </c>
       <c r="AC49" t="n">
-        <v>32.4671666666667</v>
+        <v>591.449507501328</v>
       </c>
       <c r="AD49" t="n">
-        <v>35.2370833333333</v>
+        <v>593.008170424934</v>
       </c>
       <c r="AE49" t="n">
-        <v>35.79441666666671</v>
+        <v>582.094550149641</v>
       </c>
       <c r="AF49" t="s"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="1" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>129</v>
@@ -5632,88 +5596,88 @@
         <v>34</v>
       </c>
       <c r="F50" t="n">
-        <v>3.60327541666667</v>
+        <v>17.298425</v>
       </c>
       <c r="G50" t="n">
-        <v>4.40277833333333</v>
+        <v>22.0654</v>
       </c>
       <c r="H50" t="n">
-        <v>8.736405</v>
+        <v>21.996</v>
       </c>
       <c r="I50" t="n">
-        <v>15.2837416666667</v>
+        <v>21.8952583333333</v>
       </c>
       <c r="J50" t="n">
-        <v>15.3084666666667</v>
+        <v>21.884425</v>
       </c>
       <c r="K50" t="n">
-        <v>16.444175</v>
+        <v>21.88605</v>
       </c>
       <c r="L50" t="n">
-        <v>31.0726833333333</v>
+        <v>21.886</v>
       </c>
       <c r="M50" t="n">
-        <v>44.0881416666667</v>
+        <v>92.3381</v>
       </c>
       <c r="N50" t="n">
-        <v>59.5438083333333</v>
+        <v>101.697333333333</v>
       </c>
       <c r="O50" t="n">
-        <v>72.1973333333333</v>
+        <v>111.23125</v>
       </c>
       <c r="P50" t="n">
-        <v>76.6866083333333</v>
+        <v>120.578158333333</v>
       </c>
       <c r="Q50" t="n">
-        <v>97.432475</v>
+        <v>129.22235</v>
       </c>
       <c r="R50" t="n">
-        <v>108.897508333333</v>
+        <v>132.888025</v>
       </c>
       <c r="S50" t="n">
-        <v>118.419741666667</v>
+        <v>131.274333333333</v>
       </c>
       <c r="T50" t="n">
-        <v>136.013541666667</v>
+        <v>128.651666666667</v>
       </c>
       <c r="U50" t="n">
-        <v>139.957286620718</v>
+        <v>125.808108333333</v>
       </c>
       <c r="V50" t="n">
-        <v>140.522692135642</v>
+        <v>118.546016666667</v>
       </c>
       <c r="W50" t="n">
-        <v>141.16694375</v>
+        <v>148.901741666667</v>
       </c>
       <c r="X50" t="n">
-        <v>150.486655869408</v>
+        <v>150.298025</v>
       </c>
       <c r="Y50" t="n">
-        <v>156.515451111111</v>
+        <v>153.861608333333</v>
       </c>
       <c r="Z50" t="n">
-        <v>249.105950100379</v>
+        <v>157.499425757576</v>
       </c>
       <c r="AA50" t="n">
-        <v>364.407287288297</v>
+        <v>157.311225</v>
       </c>
       <c r="AB50" t="n">
-        <v>424.895808098656</v>
+        <v>158.552641666667</v>
       </c>
       <c r="AC50" t="n">
-        <v>499.605833333333</v>
+        <v>192.440524441786</v>
       </c>
       <c r="AD50" t="n">
-        <v>718.005</v>
+        <v>253.492251919462</v>
       </c>
       <c r="AE50" t="n">
-        <v>730.2725</v>
+        <v>305.289900826671</v>
       </c>
       <c r="AF50" t="s"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="1" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
         <v>131</v>
@@ -5728,88 +5692,88 @@
         <v>34</v>
       </c>
       <c r="F51" t="n">
-        <v>264.691800750579</v>
+        <v>42.7175</v>
       </c>
       <c r="G51" t="n">
-        <v>283.162579500018</v>
+        <v>48.607165</v>
       </c>
       <c r="H51" t="n">
-        <v>555.204695655697</v>
+        <v>49.3975183333333</v>
       </c>
       <c r="I51" t="n">
-        <v>499.14842590131</v>
+        <v>51.8903333333333</v>
       </c>
       <c r="J51" t="n">
-        <v>511.552430272516</v>
+        <v>56.6919525</v>
       </c>
       <c r="K51" t="n">
-        <v>583.669372353395</v>
+        <v>58.0095491666667</v>
       </c>
       <c r="L51" t="n">
-        <v>589.951774567332</v>
+        <v>65.9757875</v>
       </c>
       <c r="M51" t="n">
-        <v>615.6991319738059</v>
+        <v>68.2393708333333</v>
       </c>
       <c r="N51" t="n">
-        <v>711.976274430833</v>
+        <v>71.0937958333333</v>
       </c>
       <c r="O51" t="n">
-        <v>733.03850707</v>
+        <v>74.94925000000001</v>
       </c>
       <c r="P51" t="n">
-        <v>696.988203611667</v>
+        <v>77.8766191666667</v>
       </c>
       <c r="Q51" t="n">
-        <v>581.200313864167</v>
+        <v>76.1414475</v>
       </c>
       <c r="R51" t="n">
-        <v>528.284809305</v>
+        <v>73.6735966666667</v>
       </c>
       <c r="S51" t="n">
-        <v>527.46814284</v>
+        <v>71.36750000000001</v>
       </c>
       <c r="T51" t="n">
-        <v>522.890109610833</v>
+        <v>72.75560583333331</v>
       </c>
       <c r="U51" t="n">
-        <v>479.2667825875</v>
+        <v>66.41502750000001</v>
       </c>
       <c r="V51" t="n">
-        <v>447.805255560773</v>
+        <v>69.76169499999999</v>
       </c>
       <c r="W51" t="n">
-        <v>472.186290754893</v>
+        <v>77.57343073901559</v>
       </c>
       <c r="X51" t="n">
-        <v>495.277021572396</v>
+        <v>73.26235901580459</v>
       </c>
       <c r="Y51" t="n">
-        <v>471.8661140917</v>
+        <v>74.02</v>
       </c>
       <c r="Z51" t="n">
-        <v>510.52713590197</v>
+        <v>85.1966666666667</v>
       </c>
       <c r="AA51" t="n">
-        <v>494.04003744699</v>
+        <v>92.9933333333333</v>
       </c>
       <c r="AB51" t="n">
-        <v>494.414952864937</v>
+        <v>97.5541666666667</v>
       </c>
       <c r="AC51" t="n">
-        <v>591.449507501328</v>
+        <v>102.405134331356</v>
       </c>
       <c r="AD51" t="n">
-        <v>593.008170424934</v>
+        <v>107.383815174654</v>
       </c>
       <c r="AE51" t="n">
-        <v>582.094550149641</v>
+        <v>104.511885242863</v>
       </c>
       <c r="AF51" t="s"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="1" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
         <v>133</v>
@@ -5824,88 +5788,88 @@
         <v>34</v>
       </c>
       <c r="F52" t="n">
-        <v>17.298425</v>
+        <v>25.0827916666667</v>
       </c>
       <c r="G52" t="n">
-        <v>22.0654</v>
+        <v>28.1071833333333</v>
       </c>
       <c r="H52" t="n">
-        <v>21.996</v>
+        <v>30.5665916666667</v>
       </c>
       <c r="I52" t="n">
-        <v>21.8952583333333</v>
+        <v>31.6426833333333</v>
       </c>
       <c r="J52" t="n">
-        <v>21.884425</v>
+        <v>36.0786833333333</v>
       </c>
       <c r="K52" t="n">
-        <v>21.88605</v>
+        <v>41.111525</v>
       </c>
       <c r="L52" t="n">
-        <v>21.886</v>
+        <v>45.0466666666667</v>
       </c>
       <c r="M52" t="n">
-        <v>92.3381</v>
+        <v>49.5006915833333</v>
       </c>
       <c r="N52" t="n">
-        <v>101.697333333333</v>
+        <v>53.6481865</v>
       </c>
       <c r="O52" t="n">
-        <v>111.23125</v>
+        <v>61.9271616666667</v>
       </c>
       <c r="P52" t="n">
-        <v>120.578158333333</v>
+        <v>59.7237816666667</v>
       </c>
       <c r="Q52" t="n">
-        <v>129.22235</v>
+        <v>57.7519966666667</v>
       </c>
       <c r="R52" t="n">
-        <v>132.888025</v>
+        <v>58.2578633333333</v>
       </c>
       <c r="S52" t="n">
-        <v>131.274333333333</v>
+        <v>59.514475</v>
       </c>
       <c r="T52" t="n">
-        <v>128.651666666667</v>
+        <v>60.271335</v>
       </c>
       <c r="U52" t="n">
-        <v>125.808108333333</v>
+        <v>60.7385158333333</v>
       </c>
       <c r="V52" t="n">
-        <v>118.546016666667</v>
+        <v>70.40803333333331</v>
       </c>
       <c r="W52" t="n">
-        <v>148.901741666667</v>
+        <v>81.71289166666669</v>
       </c>
       <c r="X52" t="n">
-        <v>150.298025</v>
+        <v>85.1938163257576</v>
       </c>
       <c r="Y52" t="n">
-        <v>153.861608333333</v>
+        <v>86.34338333333331</v>
       </c>
       <c r="Z52" t="n">
-        <v>157.499425757576</v>
+        <v>93.39519722222219</v>
       </c>
       <c r="AA52" t="n">
-        <v>157.311225</v>
+        <v>101.628899206349</v>
       </c>
       <c r="AB52" t="n">
-        <v>158.552641666667</v>
+        <v>101.100088423521</v>
       </c>
       <c r="AC52" t="n">
-        <v>192.440524441786</v>
+        <v>102.769271604675</v>
       </c>
       <c r="AD52" t="n">
-        <v>253.492251919462</v>
+        <v>104.769117033301</v>
       </c>
       <c r="AE52" t="n">
-        <v>305.289900826671</v>
+        <v>105.455162087938</v>
       </c>
       <c r="AF52" t="s"/>
     </row>
     <row r="53" spans="1:32">
       <c r="A53" s="1" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B53" t="s">
         <v>135</v>
@@ -5920,88 +5884,88 @@
         <v>34</v>
       </c>
       <c r="F53" t="n">
-        <v>42.7175</v>
+        <v>1.24583333333333</v>
       </c>
       <c r="G53" t="n">
-        <v>48.607165</v>
+        <v>1.98831891666667</v>
       </c>
       <c r="H53" t="n">
-        <v>49.3975183333333</v>
+        <v>2.195</v>
       </c>
       <c r="I53" t="n">
-        <v>51.8903333333333</v>
+        <v>2.25333333333333</v>
       </c>
       <c r="J53" t="n">
-        <v>56.6919525</v>
+        <v>2.45333333333333</v>
       </c>
       <c r="K53" t="n">
-        <v>58.0095491666667</v>
+        <v>2.66416666666667</v>
       </c>
       <c r="L53" t="n">
-        <v>65.9757875</v>
+        <v>2.93</v>
       </c>
       <c r="M53" t="n">
-        <v>68.2393708333333</v>
+        <v>3.38333333333333</v>
       </c>
       <c r="N53" t="n">
-        <v>71.0937958333333</v>
+        <v>3.49</v>
       </c>
       <c r="O53" t="n">
-        <v>74.94925000000001</v>
+        <v>3.50683333333333</v>
       </c>
       <c r="P53" t="n">
-        <v>77.8766191666667</v>
+        <v>3.5165</v>
       </c>
       <c r="Q53" t="n">
-        <v>76.1414475</v>
+        <v>3.478467</v>
       </c>
       <c r="R53" t="n">
-        <v>73.6735966666667</v>
+        <v>3.413175</v>
       </c>
       <c r="S53" t="n">
-        <v>71.36750000000001</v>
+        <v>3.29584166666667</v>
       </c>
       <c r="T53" t="n">
-        <v>72.75560583333331</v>
+        <v>3.27403250265816</v>
       </c>
       <c r="U53" t="n">
-        <v>66.41502750000001</v>
+        <v>3.12804457735247</v>
       </c>
       <c r="V53" t="n">
-        <v>69.76169499999999</v>
+        <v>2.92440833333333</v>
       </c>
       <c r="W53" t="n">
-        <v>77.57343073901559</v>
+        <v>3.01150833333333</v>
       </c>
       <c r="X53" t="n">
-        <v>73.26235901580459</v>
+        <v>2.825125</v>
       </c>
       <c r="Y53" t="n">
-        <v>74.02</v>
+        <v>2.7541</v>
       </c>
       <c r="Z53" t="n">
-        <v>85.1966666666667</v>
+        <v>2.63758641774892</v>
       </c>
       <c r="AA53" t="n">
-        <v>92.9933333333333</v>
+        <v>2.70189902597403</v>
       </c>
       <c r="AB53" t="n">
-        <v>97.5541666666667</v>
+        <v>2.83904413780664</v>
       </c>
       <c r="AC53" t="n">
-        <v>102.405134331356</v>
+        <v>3.18443924152237</v>
       </c>
       <c r="AD53" t="n">
-        <v>107.383815174654</v>
+        <v>3.37506158720665</v>
       </c>
       <c r="AE53" t="n">
-        <v>104.511885242863</v>
+        <v>3.2604884908321</v>
       </c>
       <c r="AF53" t="s"/>
     </row>
     <row r="54" spans="1:32">
       <c r="A54" s="1" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
         <v>137</v>
@@ -6016,88 +5980,88 @@
         <v>34</v>
       </c>
       <c r="F54" t="n">
-        <v>25.0827916666667</v>
+        <v>25.5124916666667</v>
       </c>
       <c r="G54" t="n">
-        <v>28.1071833333333</v>
+        <v>27.1198416666667</v>
       </c>
       <c r="H54" t="n">
-        <v>30.5665916666667</v>
+        <v>26.4171666666667</v>
       </c>
       <c r="I54" t="n">
-        <v>31.6426833333333</v>
+        <v>25.7144666666667</v>
       </c>
       <c r="J54" t="n">
-        <v>36.0786833333333</v>
+        <v>26.2161</v>
       </c>
       <c r="K54" t="n">
-        <v>41.111525</v>
+        <v>29.4706583333333</v>
       </c>
       <c r="L54" t="n">
-        <v>45.0466666666667</v>
+        <v>40.89305</v>
       </c>
       <c r="M54" t="n">
-        <v>49.5006915833333</v>
+        <v>39.0889833333333</v>
       </c>
       <c r="N54" t="n">
-        <v>53.6481865</v>
+        <v>44.19225</v>
       </c>
       <c r="O54" t="n">
-        <v>61.9271616666667</v>
+        <v>50.99265</v>
       </c>
       <c r="P54" t="n">
-        <v>59.7237816666667</v>
+        <v>51.6035666666667</v>
       </c>
       <c r="Q54" t="n">
-        <v>57.7519966666667</v>
+        <v>54.2033333333333</v>
       </c>
       <c r="R54" t="n">
-        <v>58.2578633333333</v>
+        <v>56.0399166666667</v>
       </c>
       <c r="S54" t="n">
-        <v>59.514475</v>
+        <v>55.0854916666667</v>
       </c>
       <c r="T54" t="n">
-        <v>60.271335</v>
+        <v>51.31427249999999</v>
       </c>
       <c r="U54" t="n">
-        <v>60.7385158333333</v>
+        <v>46.148391177755</v>
       </c>
       <c r="V54" t="n">
-        <v>70.40803333333331</v>
+        <v>44.32328760941</v>
       </c>
       <c r="W54" t="n">
-        <v>81.71289166666669</v>
+        <v>47.6796884535091</v>
       </c>
       <c r="X54" t="n">
-        <v>85.1938163257576</v>
+        <v>45.1096641800896</v>
       </c>
       <c r="Y54" t="n">
-        <v>86.34338333333331</v>
+        <v>43.3131369237488</v>
       </c>
       <c r="Z54" t="n">
-        <v>93.39519722222219</v>
+        <v>42.2287947349434</v>
       </c>
       <c r="AA54" t="n">
-        <v>101.628899206349</v>
+        <v>42.446184830674</v>
       </c>
       <c r="AB54" t="n">
-        <v>101.100088423521</v>
+        <v>44.3951543042097</v>
       </c>
       <c r="AC54" t="n">
-        <v>102.769271604675</v>
+        <v>45.5028399421431</v>
       </c>
       <c r="AD54" t="n">
-        <v>104.769117033301</v>
+        <v>47.4924638585099</v>
       </c>
       <c r="AE54" t="n">
-        <v>105.455162087938</v>
+        <v>50.4037197937177</v>
       </c>
       <c r="AF54" t="s"/>
     </row>
     <row r="55" spans="1:32">
       <c r="A55" s="1" t="n">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
@@ -6112,88 +6076,88 @@
         <v>34</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>133.938583325</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>144.237020537225</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>140.703847467575</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>262.1822632586</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>306.82</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>301.529816666667</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>312.314091666667</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>333.941925</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>389.696216666667</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>442.991891666667</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>475.365241666667</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>537.65498475</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>577.448974583333</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>557.822640775</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>551.710333333333</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>546.955</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>546.8486530825401</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>568.281326833333</v>
       </c>
       <c r="X55" t="n">
-        <v>1</v>
+        <v>583.130906590572</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>600.306519681097</v>
       </c>
       <c r="Z55" t="n">
-        <v>1</v>
+        <v>614.295142403067</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>646.635974550673</v>
       </c>
       <c r="AB55" t="n">
-        <v>1</v>
+        <v>681.861718947266</v>
       </c>
       <c r="AC55" t="n">
-        <v>1</v>
+        <v>720.9751088967281</v>
       </c>
       <c r="AD55" t="n">
-        <v>1</v>
+        <v>787.2515217023331</v>
       </c>
       <c r="AE55" t="n">
-        <v>1</v>
+        <v>831.5307868919549</v>
       </c>
       <c r="AF55" t="s"/>
     </row>
     <row r="56" spans="1:32">
       <c r="A56" s="1" t="n">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
         <v>141</v>
@@ -6208,88 +6172,88 @@
         <v>34</v>
       </c>
       <c r="F56" t="n">
-        <v>1.24583333333333</v>
+        <v>0.09743166666666669</v>
       </c>
       <c r="G56" t="n">
-        <v>1.98831891666667</v>
+        <v>0.159313916666667</v>
       </c>
       <c r="H56" t="n">
-        <v>2.195</v>
+        <v>0.289608916666667</v>
       </c>
       <c r="I56" t="n">
-        <v>2.25333333333333</v>
+        <v>0.58087375</v>
       </c>
       <c r="J56" t="n">
-        <v>2.45333333333333</v>
+        <v>1.25079166666667</v>
       </c>
       <c r="K56" t="n">
-        <v>2.66416666666667</v>
+        <v>1.5757425</v>
       </c>
       <c r="L56" t="n">
-        <v>2.93</v>
+        <v>2.00801916666667</v>
       </c>
       <c r="M56" t="n">
-        <v>3.38333333333333</v>
+        <v>2.52550416666667</v>
       </c>
       <c r="N56" t="n">
-        <v>3.49</v>
+        <v>2.571225</v>
       </c>
       <c r="O56" t="n">
-        <v>3.50683333333333</v>
+        <v>2.58702104166667</v>
       </c>
       <c r="P56" t="n">
-        <v>3.5165</v>
+        <v>2.63305833333333</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.478467</v>
+        <v>2.60983433333333</v>
       </c>
       <c r="R56" t="n">
-        <v>3.413175</v>
+        <v>2.57905</v>
       </c>
       <c r="S56" t="n">
-        <v>3.29584166666667</v>
+        <v>2.43605833333333</v>
       </c>
       <c r="T56" t="n">
-        <v>3.27403250265816</v>
+        <v>2.17153333333333</v>
       </c>
       <c r="U56" t="n">
-        <v>3.12804457735247</v>
+        <v>2.0161</v>
       </c>
       <c r="V56" t="n">
-        <v>2.92440833333333</v>
+        <v>2.09016282876984</v>
       </c>
       <c r="W56" t="n">
-        <v>3.01150833333333</v>
+        <v>2.30153333333333</v>
       </c>
       <c r="X56" t="n">
-        <v>2.825125</v>
+        <v>2.30600092016667</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.7541</v>
+        <v>2.66661962177469</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.63758641774892</v>
+        <v>3.57295833333333</v>
       </c>
       <c r="AA56" t="n">
-        <v>2.70189902597403</v>
+        <v>4.75676054708821</v>
       </c>
       <c r="AB56" t="n">
-        <v>2.83904413780664</v>
+        <v>5.736866666666669</v>
       </c>
       <c r="AC56" t="n">
-        <v>3.18443924152237</v>
+        <v>6.02573259791667</v>
       </c>
       <c r="AD56" t="n">
-        <v>3.37506158720665</v>
+        <v>6.21171364583333</v>
       </c>
       <c r="AE56" t="n">
-        <v>3.2604884908321</v>
+        <v>6.68336</v>
       </c>
       <c r="AF56" t="s"/>
     </row>
     <row r="57" spans="1:32">
       <c r="A57" s="1" t="n">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
         <v>143</v>
@@ -6304,88 +6268,88 @@
         <v>34</v>
       </c>
       <c r="F57" t="n">
-        <v>25.5124916666667</v>
+        <v>264.691800750579</v>
       </c>
       <c r="G57" t="n">
-        <v>27.1198416666667</v>
+        <v>283.162579500018</v>
       </c>
       <c r="H57" t="n">
-        <v>26.4171666666667</v>
+        <v>555.204695655697</v>
       </c>
       <c r="I57" t="n">
-        <v>25.7144666666667</v>
+        <v>499.14842590131</v>
       </c>
       <c r="J57" t="n">
-        <v>26.2161</v>
+        <v>511.552430272516</v>
       </c>
       <c r="K57" t="n">
-        <v>29.4706583333333</v>
+        <v>583.669372353395</v>
       </c>
       <c r="L57" t="n">
-        <v>40.89305</v>
+        <v>589.951774567332</v>
       </c>
       <c r="M57" t="n">
-        <v>39.0889833333333</v>
+        <v>615.6991319738059</v>
       </c>
       <c r="N57" t="n">
-        <v>44.19225</v>
+        <v>711.976274430833</v>
       </c>
       <c r="O57" t="n">
-        <v>50.99265</v>
+        <v>733.03850707</v>
       </c>
       <c r="P57" t="n">
-        <v>51.6035666666667</v>
+        <v>696.988203611667</v>
       </c>
       <c r="Q57" t="n">
-        <v>54.2033333333333</v>
+        <v>581.200313864167</v>
       </c>
       <c r="R57" t="n">
-        <v>56.0399166666667</v>
+        <v>528.284809305</v>
       </c>
       <c r="S57" t="n">
-        <v>55.0854916666667</v>
+        <v>527.46814284</v>
       </c>
       <c r="T57" t="n">
-        <v>51.31427249999999</v>
+        <v>522.890109610833</v>
       </c>
       <c r="U57" t="n">
-        <v>46.148391177755</v>
+        <v>479.2667825875</v>
       </c>
       <c r="V57" t="n">
-        <v>44.32328760941</v>
+        <v>447.805255560773</v>
       </c>
       <c r="W57" t="n">
-        <v>47.6796884535091</v>
+        <v>472.186290754893</v>
       </c>
       <c r="X57" t="n">
-        <v>45.1096641800896</v>
+        <v>495.277021572396</v>
       </c>
       <c r="Y57" t="n">
-        <v>43.3131369237488</v>
+        <v>471.8661140917</v>
       </c>
       <c r="Z57" t="n">
-        <v>42.2287947349434</v>
+        <v>510.52713590197</v>
       </c>
       <c r="AA57" t="n">
-        <v>42.446184830674</v>
+        <v>494.04003744699</v>
       </c>
       <c r="AB57" t="n">
-        <v>44.3951543042097</v>
+        <v>494.414952864937</v>
       </c>
       <c r="AC57" t="n">
-        <v>45.5028399421431</v>
+        <v>591.449507501328</v>
       </c>
       <c r="AD57" t="n">
-        <v>47.4924638585099</v>
+        <v>593.008170424934</v>
       </c>
       <c r="AE57" t="n">
-        <v>50.4037197937177</v>
+        <v>582.094550149641</v>
       </c>
       <c r="AF57" t="s"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="1" t="n">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
         <v>145</v>
@@ -6400,88 +6364,86 @@
         <v>34</v>
       </c>
       <c r="F58" t="n">
-        <v>133.938583325</v>
+        <v>0.00066</v>
       </c>
       <c r="G58" t="n">
-        <v>144.237020537225</v>
+        <v>0.00066</v>
       </c>
       <c r="H58" t="n">
-        <v>140.703847467575</v>
-      </c>
-      <c r="I58" t="n">
-        <v>262.1822632586</v>
-      </c>
+        <v>0.00066</v>
+      </c>
+      <c r="I58" t="s"/>
       <c r="J58" t="n">
-        <v>306.82</v>
+        <v>0.00066</v>
       </c>
       <c r="K58" t="n">
-        <v>301.529816666667</v>
+        <v>0.00066</v>
       </c>
       <c r="L58" t="n">
-        <v>312.314091666667</v>
+        <v>0.00066</v>
       </c>
       <c r="M58" t="n">
-        <v>333.941925</v>
+        <v>0.00066</v>
       </c>
       <c r="N58" t="n">
-        <v>389.696216666667</v>
+        <v>0.00066</v>
       </c>
       <c r="O58" t="n">
-        <v>442.991891666667</v>
+        <v>0.00066</v>
       </c>
       <c r="P58" t="n">
-        <v>475.365241666667</v>
+        <v>0.00066</v>
       </c>
       <c r="Q58" t="n">
-        <v>537.65498475</v>
+        <v>0.00066</v>
       </c>
       <c r="R58" t="n">
-        <v>577.448974583333</v>
+        <v>0.00066</v>
       </c>
       <c r="S58" t="n">
-        <v>557.822640775</v>
+        <v>0.00066</v>
       </c>
       <c r="T58" t="n">
-        <v>551.710333333333</v>
+        <v>0.00066</v>
       </c>
       <c r="U58" t="n">
-        <v>546.955</v>
+        <v>0.00066</v>
       </c>
       <c r="V58" t="n">
-        <v>546.8486530825401</v>
+        <v>0.00066</v>
       </c>
       <c r="W58" t="n">
-        <v>568.281326833333</v>
+        <v>0.0007099999999999999</v>
       </c>
       <c r="X58" t="n">
-        <v>583.130906590572</v>
+        <v>0.00066</v>
       </c>
       <c r="Y58" t="n">
-        <v>600.306519681097</v>
+        <v>0.00062</v>
       </c>
       <c r="Z58" t="n">
-        <v>614.295142403067</v>
+        <v>0.00061</v>
       </c>
       <c r="AA58" t="n">
-        <v>646.635974550673</v>
+        <v>0.00066</v>
       </c>
       <c r="AB58" t="n">
-        <v>681.861718947266</v>
+        <v>0.0008300000000000001</v>
       </c>
       <c r="AC58" t="n">
-        <v>720.9751088967281</v>
+        <v>0.00143</v>
       </c>
       <c r="AD58" t="n">
-        <v>787.2515217023331</v>
+        <v>0.00166</v>
       </c>
       <c r="AE58" t="n">
-        <v>831.5307868919549</v>
+        <v>0.00173</v>
       </c>
       <c r="AF58" t="s"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="1" t="n">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
         <v>147</v>
@@ -6496,88 +6458,88 @@
         <v>34</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09743166666666669</v>
+        <v>2.98895</v>
       </c>
       <c r="G59" t="n">
-        <v>0.159313916666667</v>
+        <v>2.98895</v>
       </c>
       <c r="H59" t="n">
-        <v>0.289608916666667</v>
+        <v>2.98895</v>
       </c>
       <c r="I59" t="n">
-        <v>0.58087375</v>
+        <v>2.98895</v>
       </c>
       <c r="J59" t="n">
-        <v>1.25079166666667</v>
+        <v>2.98895</v>
       </c>
       <c r="K59" t="n">
-        <v>1.5757425</v>
+        <v>2.98895</v>
       </c>
       <c r="L59" t="n">
-        <v>2.00801916666667</v>
+        <v>2.98895</v>
       </c>
       <c r="M59" t="n">
-        <v>2.52550416666667</v>
+        <v>2.98895</v>
       </c>
       <c r="N59" t="n">
-        <v>2.571225</v>
+        <v>2.98895</v>
       </c>
       <c r="O59" t="n">
-        <v>2.58702104166667</v>
+        <v>2.98895</v>
       </c>
       <c r="P59" t="n">
-        <v>2.63305833333333</v>
+        <v>2.98895</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.60983433333333</v>
+        <v>2.98895</v>
       </c>
       <c r="R59" t="n">
-        <v>2.57905</v>
+        <v>2.98895</v>
       </c>
       <c r="S59" t="n">
-        <v>2.43605833333333</v>
+        <v>2.98895</v>
       </c>
       <c r="T59" t="n">
-        <v>2.17153333333333</v>
+        <v>2.98895</v>
       </c>
       <c r="U59" t="n">
-        <v>2.0161</v>
+        <v>2.98895</v>
       </c>
       <c r="V59" t="n">
-        <v>2.09016282876984</v>
+        <v>2.98895</v>
       </c>
       <c r="W59" t="n">
-        <v>2.30153333333333</v>
+        <v>2.98895</v>
       </c>
       <c r="X59" t="n">
-        <v>2.30600092016667</v>
+        <v>2.98895</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.66661962177469</v>
+        <v>2.98895</v>
       </c>
       <c r="Z59" t="n">
-        <v>3.57295833333333</v>
+        <v>2.95</v>
       </c>
       <c r="AA59" t="n">
-        <v>4.75676054708821</v>
+        <v>2.95</v>
       </c>
       <c r="AB59" t="n">
-        <v>5.736866666666669</v>
+        <v>2.95</v>
       </c>
       <c r="AC59" t="n">
-        <v>6.02573259791667</v>
+        <v>4.08925833333333</v>
       </c>
       <c r="AD59" t="n">
-        <v>6.21171364583333</v>
+        <v>49.4067916666604</v>
       </c>
       <c r="AE59" t="n">
-        <v>6.68336</v>
+        <v>115.387991666667</v>
       </c>
       <c r="AF59" t="s"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="1" t="n">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B60" t="s">
         <v>149</v>
@@ -6592,88 +6554,88 @@
         <v>34</v>
       </c>
       <c r="F60" t="n">
-        <v>264.691800750579</v>
+        <v>2.85201416666667</v>
       </c>
       <c r="G60" t="n">
-        <v>283.162579500018</v>
+        <v>3.26774158333333</v>
       </c>
       <c r="H60" t="n">
-        <v>555.204695655697</v>
+        <v>3.55079833333333</v>
       </c>
       <c r="I60" t="n">
-        <v>499.14842590131</v>
+        <v>3.627085</v>
       </c>
       <c r="J60" t="n">
-        <v>511.552430272516</v>
+        <v>4.29934916666667</v>
       </c>
       <c r="K60" t="n">
-        <v>583.669372353395</v>
+        <v>4.60796166666667</v>
       </c>
       <c r="L60" t="n">
-        <v>589.951774567332</v>
+        <v>5.52828416666667</v>
       </c>
       <c r="M60" t="n">
-        <v>615.6991319738059</v>
+        <v>6.10948416666667</v>
       </c>
       <c r="N60" t="n">
-        <v>711.976274430833</v>
+        <v>6.93982833333333</v>
       </c>
       <c r="O60" t="n">
-        <v>733.03850707</v>
+        <v>8.60918083333333</v>
       </c>
       <c r="P60" t="n">
-        <v>696.988203611667</v>
+        <v>10.5407466666667</v>
       </c>
       <c r="Q60" t="n">
-        <v>581.200313864167</v>
+        <v>7.56474916666667</v>
       </c>
       <c r="R60" t="n">
-        <v>528.284809305</v>
+        <v>6.4596925</v>
       </c>
       <c r="S60" t="n">
-        <v>527.46814284</v>
+        <v>6.35932833333333</v>
       </c>
       <c r="T60" t="n">
-        <v>522.890109610833</v>
+        <v>6.77154916666667</v>
       </c>
       <c r="U60" t="n">
-        <v>479.2667825875</v>
+        <v>7.045364999999999</v>
       </c>
       <c r="V60" t="n">
-        <v>447.805255560773</v>
+        <v>8.26122333333333</v>
       </c>
       <c r="W60" t="n">
-        <v>472.186290754893</v>
+        <v>8.47367415824888</v>
       </c>
       <c r="X60" t="n">
-        <v>495.277021572396</v>
+        <v>7.32122196115288</v>
       </c>
       <c r="Y60" t="n">
-        <v>471.8661140917</v>
+        <v>7.261132132327349</v>
       </c>
       <c r="Z60" t="n">
-        <v>510.52713590197</v>
+        <v>8.209968626593311</v>
       </c>
       <c r="AA60" t="n">
-        <v>494.04003744699</v>
+        <v>9.655056069135259</v>
       </c>
       <c r="AB60" t="n">
-        <v>494.414952864937</v>
+        <v>10.8526555687831</v>
       </c>
       <c r="AC60" t="n">
-        <v>591.449507501328</v>
+        <v>12.7589308811644</v>
       </c>
       <c r="AD60" t="n">
-        <v>593.008170424934</v>
+        <v>14.7096108855267</v>
       </c>
       <c r="AE60" t="n">
-        <v>582.094550149641</v>
+        <v>13.3337814606369</v>
       </c>
       <c r="AF60" t="s"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="1" t="n">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="B61" t="s">
         <v>151</v>
@@ -6688,88 +6650,88 @@
         <v>34</v>
       </c>
       <c r="F61" t="n">
-        <v>8.36083333333333</v>
+        <v>11.225</v>
       </c>
       <c r="G61" t="n">
-        <v>8.70250833333334</v>
+        <v>11.225</v>
       </c>
       <c r="H61" t="n">
-        <v>8.72875</v>
+        <v>11.225</v>
       </c>
       <c r="I61" t="n">
-        <v>8.754583333333331</v>
+        <v>11.225</v>
       </c>
       <c r="J61" t="n">
-        <v>8.755000000000001</v>
+        <v>11.225</v>
       </c>
       <c r="K61" t="n">
-        <v>8.75625</v>
+        <v>11.225</v>
       </c>
       <c r="L61" t="n">
-        <v>8.755000000000001</v>
+        <v>11.225</v>
       </c>
       <c r="M61" t="n">
-        <v>8.755000000000001</v>
+        <v>11.225</v>
       </c>
       <c r="N61" t="n">
-        <v>8.755000000000001</v>
+        <v>11.225</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="W61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="X61" t="n">
-        <v>1</v>
+        <v>11.225</v>
       </c>
       <c r="Y61" t="n">
-        <v>1</v>
+        <v>48.3366666666667</v>
       </c>
       <c r="Z61" t="n">
-        <v>1</v>
+        <v>64.5808333333333</v>
       </c>
       <c r="AA61" t="n">
-        <v>1</v>
+        <v>108.733333333333</v>
       </c>
       <c r="AB61" t="n">
-        <v>1</v>
+        <v>154.13</v>
       </c>
       <c r="AC61" t="n">
-        <v>1</v>
+        <v>237.029166666667</v>
       </c>
       <c r="AD61" t="n">
-        <v>1</v>
+        <v>460.275833333333</v>
       </c>
       <c r="AE61" t="n">
-        <v>1</v>
+        <v>492.610833333333</v>
       </c>
       <c r="AF61" t="s"/>
     </row>
     <row r="62" spans="1:32">
       <c r="A62" s="1" t="n">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B62" t="s">
         <v>153</v>
@@ -6784,86 +6746,88 @@
         <v>34</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00066</v>
+        <v>264.691800750579</v>
       </c>
       <c r="G62" t="n">
-        <v>0.00066</v>
+        <v>283.162579500018</v>
       </c>
       <c r="H62" t="n">
-        <v>0.00066</v>
-      </c>
-      <c r="I62" t="s"/>
+        <v>555.204695655697</v>
+      </c>
+      <c r="I62" t="n">
+        <v>499.14842590131</v>
+      </c>
       <c r="J62" t="n">
-        <v>0.00066</v>
+        <v>511.552430272516</v>
       </c>
       <c r="K62" t="n">
-        <v>0.00066</v>
+        <v>583.669372353395</v>
       </c>
       <c r="L62" t="n">
-        <v>0.00066</v>
+        <v>589.951774567332</v>
       </c>
       <c r="M62" t="n">
-        <v>0.00066</v>
+        <v>615.6991319738059</v>
       </c>
       <c r="N62" t="n">
-        <v>0.00066</v>
+        <v>711.976274430833</v>
       </c>
       <c r="O62" t="n">
-        <v>0.00066</v>
+        <v>733.03850707</v>
       </c>
       <c r="P62" t="n">
-        <v>0.00066</v>
+        <v>696.988203611667</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.00066</v>
+        <v>581.200313864167</v>
       </c>
       <c r="R62" t="n">
-        <v>0.00066</v>
+        <v>528.284809305</v>
       </c>
       <c r="S62" t="n">
-        <v>0.00066</v>
+        <v>527.46814284</v>
       </c>
       <c r="T62" t="n">
-        <v>0.00066</v>
+        <v>522.890109610833</v>
       </c>
       <c r="U62" t="n">
-        <v>0.00066</v>
+        <v>479.2667825875</v>
       </c>
       <c r="V62" t="n">
-        <v>0.00066</v>
+        <v>447.805255560773</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0007099999999999999</v>
+        <v>472.186290754893</v>
       </c>
       <c r="X62" t="n">
-        <v>0.00066</v>
+        <v>495.277021572396</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.00062</v>
+        <v>471.8661140917</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.00061</v>
+        <v>510.52713590197</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.00066</v>
+        <v>494.04003744699</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.0008300000000000001</v>
+        <v>494.414952864937</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.00143</v>
+        <v>591.449507501328</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.00166</v>
+        <v>593.008170424934</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.00173</v>
+        <v>582.094550149641</v>
       </c>
       <c r="AF62" t="s"/>
     </row>
     <row r="63" spans="1:32">
       <c r="A63" s="1" t="n">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B63" t="s">
         <v>155</v>
@@ -6878,88 +6842,88 @@
         <v>34</v>
       </c>
       <c r="F63" t="n">
-        <v>2.98895</v>
+        <v>0.00246851796666667</v>
       </c>
       <c r="G63" t="n">
-        <v>2.98895</v>
+        <v>0.010357405</v>
       </c>
       <c r="H63" t="n">
-        <v>2.98895</v>
+        <v>0.0244943481666667</v>
       </c>
       <c r="I63" t="n">
-        <v>2.98895</v>
+        <v>0.122858703333333</v>
       </c>
       <c r="J63" t="n">
-        <v>2.98895</v>
+        <v>0.2955</v>
       </c>
       <c r="K63" t="n">
-        <v>2.98895</v>
+        <v>0.562333333333333</v>
       </c>
       <c r="L63" t="n">
-        <v>2.98895</v>
+        <v>0.776625</v>
       </c>
       <c r="M63" t="n">
-        <v>2.98895</v>
+        <v>1.23779166666667</v>
       </c>
       <c r="N63" t="n">
-        <v>2.98895</v>
+        <v>2.07625</v>
       </c>
       <c r="O63" t="n">
-        <v>2.98895</v>
+        <v>2.37219166666667</v>
       </c>
       <c r="P63" t="n">
-        <v>2.98895</v>
+        <v>2.76413333333333</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.98895</v>
+        <v>3.06136666666667</v>
       </c>
       <c r="R63" t="n">
-        <v>2.98895</v>
+        <v>2.97050833333333</v>
       </c>
       <c r="S63" t="n">
-        <v>2.98895</v>
+        <v>3.11656666666667</v>
       </c>
       <c r="T63" t="n">
-        <v>2.98895</v>
+        <v>3.29840833333333</v>
       </c>
       <c r="U63" t="n">
-        <v>2.98895</v>
+        <v>3.44248333333333</v>
       </c>
       <c r="V63" t="n">
-        <v>2.98895</v>
+        <v>3.430725</v>
       </c>
       <c r="W63" t="n">
-        <v>2.98895</v>
+        <v>4.142708333333331</v>
       </c>
       <c r="X63" t="n">
-        <v>2.98895</v>
+        <v>4.37896666666667</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.98895</v>
+        <v>4.61018333333333</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.95</v>
+        <v>4.73770833333333</v>
       </c>
       <c r="AA63" t="n">
-        <v>2.95</v>
+        <v>4.76423333333333</v>
       </c>
       <c r="AB63" t="n">
-        <v>2.95</v>
+        <v>4.93756666666667</v>
       </c>
       <c r="AC63" t="n">
-        <v>4.08925833333333</v>
+        <v>6.16311666666667</v>
       </c>
       <c r="AD63" t="n">
-        <v>49.4067916666604</v>
+        <v>7.835675</v>
       </c>
       <c r="AE63" t="n">
-        <v>115.387991666667</v>
+        <v>8.549741666666669</v>
       </c>
       <c r="AF63" t="s"/>
     </row>
     <row r="64" spans="1:32">
       <c r="A64" s="1" t="n">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
         <v>157</v>
@@ -6974,88 +6938,88 @@
         <v>34</v>
       </c>
       <c r="F64" t="n">
-        <v>2.85201416666667</v>
+        <v>0.00687242333333333</v>
       </c>
       <c r="G64" t="n">
-        <v>3.26774158333333</v>
+        <v>0.0109846283333333</v>
       </c>
       <c r="H64" t="n">
-        <v>3.55079833333333</v>
+        <v>0.0296086758333333</v>
       </c>
       <c r="I64" t="n">
-        <v>3.627085</v>
+        <v>0.0458450608333333</v>
       </c>
       <c r="J64" t="n">
-        <v>4.29934916666667</v>
+        <v>0.0814048916666667</v>
       </c>
       <c r="K64" t="n">
-        <v>4.60796166666667</v>
+        <v>0.151865</v>
       </c>
       <c r="L64" t="n">
-        <v>5.52828416666667</v>
+        <v>0.26072425</v>
       </c>
       <c r="M64" t="n">
-        <v>6.10948416666667</v>
+        <v>0.4187829166666671</v>
       </c>
       <c r="N64" t="n">
-        <v>6.93982833333333</v>
+        <v>0.6252185</v>
       </c>
       <c r="O64" t="n">
-        <v>8.60918083333333</v>
+        <v>1.22558808333333</v>
       </c>
       <c r="P64" t="n">
-        <v>10.5407466666667</v>
+        <v>1.50722641666667</v>
       </c>
       <c r="Q64" t="n">
-        <v>7.56474916666667</v>
+        <v>1.50088520858333</v>
       </c>
       <c r="R64" t="n">
-        <v>6.4596925</v>
+        <v>1.42553725</v>
       </c>
       <c r="S64" t="n">
-        <v>6.35932833333333</v>
+        <v>1.34358310833333</v>
       </c>
       <c r="T64" t="n">
-        <v>6.77154916666667</v>
+        <v>1.42845341333845</v>
       </c>
       <c r="U64" t="n">
-        <v>7.045364999999999</v>
+        <v>1.30293090533794</v>
       </c>
       <c r="V64" t="n">
-        <v>8.26122333333333</v>
+        <v>1.30152170281795</v>
       </c>
       <c r="W64" t="n">
-        <v>8.47367415824888</v>
+        <v>1.54995977566564</v>
       </c>
       <c r="X64" t="n">
-        <v>7.32122196115288</v>
+        <v>1.5028486296723</v>
       </c>
       <c r="Y64" t="n">
-        <v>7.261132132327349</v>
+        <v>1.67495455197133</v>
       </c>
       <c r="Z64" t="n">
-        <v>8.209968626593311</v>
+        <v>1.79600094441355</v>
       </c>
       <c r="AA64" t="n">
-        <v>9.655056069135259</v>
+        <v>1.90376824244752</v>
       </c>
       <c r="AB64" t="n">
-        <v>10.8526555687831</v>
+        <v>2.18854241775474</v>
       </c>
       <c r="AC64" t="n">
-        <v>12.7589308811644</v>
+        <v>2.72000852790579</v>
       </c>
       <c r="AD64" t="n">
-        <v>14.7096108855267</v>
+        <v>3.02013474808043</v>
       </c>
       <c r="AE64" t="n">
-        <v>13.3337814606369</v>
+        <v>3.64813263536866</v>
       </c>
       <c r="AF64" t="s"/>
     </row>
     <row r="65" spans="1:32">
       <c r="A65" s="1" t="n">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
         <v>159</v>
@@ -7070,88 +7034,88 @@
         <v>34</v>
       </c>
       <c r="F65" t="n">
-        <v>11.225</v>
+        <v>297.708083333333</v>
       </c>
       <c r="G65" t="n">
-        <v>11.225</v>
+        <v>405.274016666667</v>
       </c>
       <c r="H65" t="n">
-        <v>11.225</v>
+        <v>509.630875</v>
       </c>
       <c r="I65" t="n">
-        <v>11.225</v>
+        <v>574.761741666667</v>
       </c>
       <c r="J65" t="n">
-        <v>11.225</v>
+        <v>579.976666666667</v>
       </c>
       <c r="K65" t="n">
-        <v>11.225</v>
+        <v>612.1224999999999</v>
       </c>
       <c r="L65" t="n">
-        <v>11.225</v>
+        <v>664.671208333333</v>
       </c>
       <c r="M65" t="n">
-        <v>11.225</v>
+        <v>744.7590750000001</v>
       </c>
       <c r="N65" t="n">
-        <v>11.225</v>
+        <v>800.408516666667</v>
       </c>
       <c r="O65" t="n">
-        <v>11.225</v>
+        <v>876.411666666667</v>
       </c>
       <c r="P65" t="n">
-        <v>11.225</v>
+        <v>966.582784259259</v>
       </c>
       <c r="Q65" t="n">
-        <v>11.225</v>
+        <v>1038.41900659604</v>
       </c>
       <c r="R65" t="n">
-        <v>11.225</v>
+        <v>1089.33477148983</v>
       </c>
       <c r="S65" t="n">
-        <v>11.225</v>
+        <v>1128.93417916192</v>
       </c>
       <c r="T65" t="n">
-        <v>11.225</v>
+        <v>1251.89997292515</v>
       </c>
       <c r="U65" t="n">
-        <v>11.225</v>
+        <v>1245.03546404783</v>
       </c>
       <c r="V65" t="n">
-        <v>11.225</v>
+        <v>1196.31070921046</v>
       </c>
       <c r="W65" t="n">
-        <v>11.225</v>
+        <v>1320.31206074041</v>
       </c>
       <c r="X65" t="n">
-        <v>11.225</v>
+        <v>1395.62494347608</v>
       </c>
       <c r="Y65" t="n">
-        <v>48.3366666666667</v>
+        <v>1557.43337278866</v>
       </c>
       <c r="Z65" t="n">
-        <v>64.5808333333333</v>
+        <v>1571.69799856913</v>
       </c>
       <c r="AA65" t="n">
-        <v>108.733333333333</v>
+        <v>1597.55575103022</v>
       </c>
       <c r="AB65" t="n">
-        <v>154.13</v>
+        <v>1653.23201290721</v>
       </c>
       <c r="AC65" t="n">
-        <v>237.029166666667</v>
+        <v>1991.39096448287</v>
       </c>
       <c r="AD65" t="n">
-        <v>460.275833333333</v>
+        <v>2177.08595381578</v>
       </c>
       <c r="AE65" t="n">
-        <v>492.610833333333</v>
+        <v>2228.85762899348</v>
       </c>
       <c r="AF65" t="s"/>
     </row>
     <row r="66" spans="1:32">
       <c r="A66" s="1" t="n">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B66" t="s">
         <v>161</v>
@@ -7166,88 +7130,88 @@
         <v>34</v>
       </c>
       <c r="F66" t="n">
-        <v>264.691800750579</v>
+        <v>1133.83433333333</v>
       </c>
       <c r="G66" t="n">
-        <v>283.162579500018</v>
+        <v>1195.01675</v>
       </c>
       <c r="H66" t="n">
-        <v>555.204695655697</v>
+        <v>979.445416666667</v>
       </c>
       <c r="I66" t="n">
-        <v>499.14842590131</v>
+        <v>968.916666666667</v>
       </c>
       <c r="J66" t="n">
-        <v>511.552430272516</v>
+        <v>1046.08475</v>
       </c>
       <c r="K66" t="n">
-        <v>583.669372353395</v>
+        <v>1083.00866666667</v>
       </c>
       <c r="L66" t="n">
-        <v>589.951774567332</v>
+        <v>1240.30583333333</v>
       </c>
       <c r="M66" t="n">
-        <v>615.6991319738059</v>
+        <v>1454.82716666667</v>
       </c>
       <c r="N66" t="n">
-        <v>711.976274430833</v>
+        <v>1644.47533333333</v>
       </c>
       <c r="O66" t="n">
-        <v>733.03850707</v>
+        <v>1755.65875</v>
       </c>
       <c r="P66" t="n">
-        <v>696.988203611667</v>
+        <v>1797.5505</v>
       </c>
       <c r="Q66" t="n">
-        <v>581.200313864167</v>
+        <v>1963.72008333333</v>
       </c>
       <c r="R66" t="n">
-        <v>528.284809305</v>
+        <v>1810.30471365151</v>
       </c>
       <c r="S66" t="n">
-        <v>527.46814284</v>
+        <v>1780.66577689394</v>
       </c>
       <c r="T66" t="n">
-        <v>522.890109610833</v>
+        <v>1831.45340494586</v>
       </c>
       <c r="U66" t="n">
-        <v>479.2667825875</v>
+        <v>1723.491772343</v>
       </c>
       <c r="V66" t="n">
-        <v>447.805255560773</v>
+        <v>1720.44388331777</v>
       </c>
       <c r="W66" t="n">
-        <v>472.186290754893</v>
+        <v>2030.48807433418</v>
       </c>
       <c r="X66" t="n">
-        <v>495.277021572396</v>
+        <v>2177.55750683358</v>
       </c>
       <c r="Y66" t="n">
-        <v>471.8661140917</v>
+        <v>2522.74632070807</v>
       </c>
       <c r="Z66" t="n">
-        <v>510.52713590197</v>
+        <v>2504.56307758328</v>
       </c>
       <c r="AA66" t="n">
-        <v>494.04003744699</v>
+        <v>2586.88956856561</v>
       </c>
       <c r="AB66" t="n">
-        <v>494.414952864937</v>
+        <v>2599.78852141862</v>
       </c>
       <c r="AC66" t="n">
-        <v>591.449507501328</v>
+        <v>3240.64542033826</v>
       </c>
       <c r="AD66" t="n">
-        <v>593.008170424934</v>
+        <v>3420.09800724736</v>
       </c>
       <c r="AE66" t="n">
-        <v>582.094550149641</v>
+        <v>3611.22445804461</v>
       </c>
       <c r="AF66" t="s"/>
     </row>
     <row r="67" spans="1:32">
       <c r="A67" s="1" t="n">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B67" t="s">
         <v>163</v>
@@ -7262,88 +7226,88 @@
         <v>34</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00246851796666667</v>
+        <v>0.045325</v>
       </c>
       <c r="G67" t="n">
-        <v>0.010357405</v>
+        <v>0.045325</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0244943481666667</v>
+        <v>0.327514166666667</v>
       </c>
       <c r="I67" t="n">
-        <v>0.122858703333333</v>
+        <v>1.473075</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2955</v>
+        <v>1.82946855833333</v>
       </c>
       <c r="K67" t="n">
-        <v>0.562333333333333</v>
+        <v>1.86165833333333</v>
       </c>
       <c r="L67" t="n">
-        <v>0.776625</v>
+        <v>2.44954166666667</v>
       </c>
       <c r="M67" t="n">
-        <v>1.23779166666667</v>
+        <v>4.13044166666667</v>
       </c>
       <c r="N67" t="n">
-        <v>2.07625</v>
+        <v>5.44023333333333</v>
       </c>
       <c r="O67" t="n">
-        <v>2.37219166666667</v>
+        <v>5.37215833333333</v>
       </c>
       <c r="P67" t="n">
-        <v>2.76413333333333</v>
+        <v>5.326625</v>
       </c>
       <c r="Q67" t="n">
-        <v>3.06136666666667</v>
+        <v>5.33268833333333</v>
       </c>
       <c r="R67" t="n">
-        <v>2.97050833333333</v>
+        <v>5.31918066666667</v>
       </c>
       <c r="S67" t="n">
-        <v>3.11656666666667</v>
+        <v>5.124729</v>
       </c>
       <c r="T67" t="n">
-        <v>3.29840833333333</v>
+        <v>5.05</v>
       </c>
       <c r="U67" t="n">
-        <v>3.44248333333333</v>
+        <v>5.05</v>
       </c>
       <c r="V67" t="n">
-        <v>3.430725</v>
+        <v>5.26722141666667</v>
       </c>
       <c r="W67" t="n">
-        <v>4.142708333333331</v>
+        <v>7.79124033333333</v>
       </c>
       <c r="X67" t="n">
-        <v>4.37896666666667</v>
+        <v>7.93563941666667</v>
       </c>
       <c r="Y67" t="n">
-        <v>4.61018333333333</v>
+        <v>7.96756283333333</v>
       </c>
       <c r="Z67" t="n">
-        <v>4.73770833333333</v>
+        <v>7.99102933333333</v>
       </c>
       <c r="AA67" t="n">
-        <v>4.76423333333333</v>
+        <v>7.992999999999999</v>
       </c>
       <c r="AB67" t="n">
-        <v>4.93756666666667</v>
+        <v>11.8866594166667</v>
       </c>
       <c r="AC67" t="n">
-        <v>6.16311666666667</v>
+        <v>21.8446977666667</v>
       </c>
       <c r="AD67" t="n">
-        <v>7.835675</v>
+        <v>25.5513341166667</v>
       </c>
       <c r="AE67" t="n">
-        <v>8.549741666666669</v>
+        <v>26.5966063</v>
       </c>
       <c r="AF67" t="s"/>
     </row>
     <row r="68" spans="1:32">
       <c r="A68" s="1" t="n">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
         <v>165</v>
@@ -7358,88 +7322,88 @@
         <v>34</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>12.0100001707085</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>12.0100001707085</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>12.0100001707085</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>40.8391667581349</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>94.15666671653521</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>129.280833333333</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>135.881666666667</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>155.718333333333</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>161.718333333333</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>168.671666666667</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>175.625</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>183.448333333333</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>184.775833333333</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>191.509166666667</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>197.049166666667</v>
       </c>
       <c r="U68" t="n">
-        <v>1</v>
+        <v>198.953333333333</v>
       </c>
       <c r="V68" t="n">
-        <v>1</v>
+        <v>199.764166666667</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>202.846666666667</v>
       </c>
       <c r="X68" t="n">
-        <v>1</v>
+        <v>219.59</v>
       </c>
       <c r="Y68" t="n">
-        <v>1</v>
+        <v>213.8</v>
       </c>
       <c r="Z68" t="n">
-        <v>1</v>
+        <v>214.350833333333</v>
       </c>
       <c r="AA68" t="n">
-        <v>1</v>
+        <v>214.89</v>
       </c>
       <c r="AB68" t="n">
-        <v>1</v>
+        <v>214.89</v>
       </c>
       <c r="AC68" t="n">
-        <v>1</v>
+        <v>214.89</v>
       </c>
       <c r="AD68" t="n">
-        <v>1</v>
+        <v>214.89</v>
       </c>
       <c r="AE68" t="n">
-        <v>1</v>
+        <v>214.89</v>
       </c>
       <c r="AF68" t="s"/>
     </row>
     <row r="69" spans="1:32">
       <c r="A69" s="1" t="n">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
         <v>167</v>
@@ -7454,660 +7418,84 @@
         <v>34</v>
       </c>
       <c r="F69" t="n">
-        <v>0.00687242333333333</v>
+        <v>0.172213783333333</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0109846283333333</v>
+        <v>0.4527626666666671</v>
       </c>
       <c r="H69" t="n">
-        <v>0.0296086758333333</v>
+        <v>0.6693706216666671</v>
       </c>
       <c r="I69" t="n">
-        <v>0.0458450608333333</v>
+        <v>0.864119166666667</v>
       </c>
       <c r="J69" t="n">
-        <v>0.0814048916666667</v>
+        <v>1.2079</v>
       </c>
       <c r="K69" t="n">
-        <v>0.151865</v>
+        <v>1.3144975</v>
       </c>
       <c r="L69" t="n">
-        <v>0.26072425</v>
+        <v>1.86206916666667</v>
       </c>
       <c r="M69" t="n">
-        <v>0.4187829166666671</v>
+        <v>2.38801916666667</v>
       </c>
       <c r="N69" t="n">
-        <v>0.6252185</v>
+        <v>3.11084416666667</v>
       </c>
       <c r="O69" t="n">
-        <v>1.22558808333333</v>
+        <v>3.610935</v>
       </c>
       <c r="P69" t="n">
-        <v>1.50722641666667</v>
+        <v>4.398594999999999</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.50088520858333</v>
+        <v>4.73327104649872</v>
       </c>
       <c r="R69" t="n">
-        <v>1.42553725</v>
+        <v>4.77887538643579</v>
       </c>
       <c r="S69" t="n">
-        <v>1.34358310833333</v>
+        <v>4.46350331051587</v>
       </c>
       <c r="T69" t="n">
-        <v>1.42845341333845</v>
+        <v>3.60307204258248</v>
       </c>
       <c r="U69" t="n">
-        <v>1.30293090533794</v>
+        <v>4.00252266503643</v>
       </c>
       <c r="V69" t="n">
-        <v>1.30152170281795</v>
+        <v>3.74566069008764</v>
       </c>
       <c r="W69" t="n">
-        <v>1.54995977566564</v>
+        <v>5.046109245212349</v>
       </c>
       <c r="X69" t="n">
-        <v>1.5028486296723</v>
+        <v>4.797136875</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.67495455197133</v>
+        <v>4.86066553209349</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.79600094441355</v>
+        <v>5.14725266514413</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.90376824244752</v>
+        <v>5.39588706794446</v>
       </c>
       <c r="AB69" t="n">
-        <v>2.18854241775474</v>
+        <v>6.152816248124489</v>
       </c>
       <c r="AC69" t="n">
-        <v>2.72000852790579</v>
+        <v>8.632355962341959</v>
       </c>
       <c r="AD69" t="n">
-        <v>3.02013474808043</v>
+        <v>10.313053230894</v>
       </c>
       <c r="AE69" t="n">
-        <v>3.64813263536866</v>
+        <v>9.51950141981807</v>
       </c>
       <c r="AF69" t="s"/>
-    </row>
-    <row r="70" spans="1:32">
-      <c r="A70" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B70" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" t="n">
-        <v>297.708083333333</v>
-      </c>
-      <c r="G70" t="n">
-        <v>405.274016666667</v>
-      </c>
-      <c r="H70" t="n">
-        <v>509.630875</v>
-      </c>
-      <c r="I70" t="n">
-        <v>574.761741666667</v>
-      </c>
-      <c r="J70" t="n">
-        <v>579.976666666667</v>
-      </c>
-      <c r="K70" t="n">
-        <v>612.1224999999999</v>
-      </c>
-      <c r="L70" t="n">
-        <v>664.671208333333</v>
-      </c>
-      <c r="M70" t="n">
-        <v>744.7590750000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>800.408516666667</v>
-      </c>
-      <c r="O70" t="n">
-        <v>876.411666666667</v>
-      </c>
-      <c r="P70" t="n">
-        <v>966.582784259259</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1038.41900659604</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1089.33477148983</v>
-      </c>
-      <c r="S70" t="n">
-        <v>1128.93417916192</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1251.89997292515</v>
-      </c>
-      <c r="U70" t="n">
-        <v>1245.03546404783</v>
-      </c>
-      <c r="V70" t="n">
-        <v>1196.31070921046</v>
-      </c>
-      <c r="W70" t="n">
-        <v>1320.31206074041</v>
-      </c>
-      <c r="X70" t="n">
-        <v>1395.62494347608</v>
-      </c>
-      <c r="Y70" t="n">
-        <v>1557.43337278866</v>
-      </c>
-      <c r="Z70" t="n">
-        <v>1571.69799856913</v>
-      </c>
-      <c r="AA70" t="n">
-        <v>1597.55575103022</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>1653.23201290721</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>1991.39096448287</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>2177.08595381578</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>2228.85762899348</v>
-      </c>
-      <c r="AF70" t="s"/>
-    </row>
-    <row r="71" spans="1:32">
-      <c r="A71" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B71" t="s">
-        <v>171</v>
-      </c>
-      <c r="C71" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1133.83433333333</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1195.01675</v>
-      </c>
-      <c r="H71" t="n">
-        <v>979.445416666667</v>
-      </c>
-      <c r="I71" t="n">
-        <v>968.916666666667</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1046.08475</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1083.00866666667</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1240.30583333333</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1454.82716666667</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1644.47533333333</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1755.65875</v>
-      </c>
-      <c r="P71" t="n">
-        <v>1797.5505</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1963.72008333333</v>
-      </c>
-      <c r="R71" t="n">
-        <v>1810.30471365151</v>
-      </c>
-      <c r="S71" t="n">
-        <v>1780.66577689394</v>
-      </c>
-      <c r="T71" t="n">
-        <v>1831.45340494586</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1723.491772343</v>
-      </c>
-      <c r="V71" t="n">
-        <v>1720.44388331777</v>
-      </c>
-      <c r="W71" t="n">
-        <v>2030.48807433418</v>
-      </c>
-      <c r="X71" t="n">
-        <v>2177.55750683358</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>2522.74632070807</v>
-      </c>
-      <c r="Z71" t="n">
-        <v>2504.56307758328</v>
-      </c>
-      <c r="AA71" t="n">
-        <v>2586.88956856561</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>2599.78852141862</v>
-      </c>
-      <c r="AC71" t="n">
-        <v>3240.64542033826</v>
-      </c>
-      <c r="AD71" t="n">
-        <v>3420.09800724736</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>3611.22445804461</v>
-      </c>
-      <c r="AF71" t="s"/>
-    </row>
-    <row r="72" spans="1:32">
-      <c r="A72" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B72" t="s">
-        <v>173</v>
-      </c>
-      <c r="C72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D72" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.045325</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.045325</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.327514166666667</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1.473075</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.82946855833333</v>
-      </c>
-      <c r="K72" t="n">
-        <v>1.86165833333333</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.44954166666667</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4.13044166666667</v>
-      </c>
-      <c r="N72" t="n">
-        <v>5.44023333333333</v>
-      </c>
-      <c r="O72" t="n">
-        <v>5.37215833333333</v>
-      </c>
-      <c r="P72" t="n">
-        <v>5.326625</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>5.33268833333333</v>
-      </c>
-      <c r="R72" t="n">
-        <v>5.31918066666667</v>
-      </c>
-      <c r="S72" t="n">
-        <v>5.124729</v>
-      </c>
-      <c r="T72" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="U72" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="V72" t="n">
-        <v>5.26722141666667</v>
-      </c>
-      <c r="W72" t="n">
-        <v>7.79124033333333</v>
-      </c>
-      <c r="X72" t="n">
-        <v>7.93563941666667</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>7.96756283333333</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>7.99102933333333</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>7.992999999999999</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>11.8866594166667</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>21.8446977666667</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>25.5513341166667</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>26.5966063</v>
-      </c>
-      <c r="AF72" t="s"/>
-    </row>
-    <row r="73" spans="1:32">
-      <c r="A73" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B73" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12.0100001707085</v>
-      </c>
-      <c r="G73" t="n">
-        <v>12.0100001707085</v>
-      </c>
-      <c r="H73" t="n">
-        <v>12.0100001707085</v>
-      </c>
-      <c r="I73" t="n">
-        <v>40.8391667581349</v>
-      </c>
-      <c r="J73" t="n">
-        <v>94.15666671653521</v>
-      </c>
-      <c r="K73" t="n">
-        <v>129.280833333333</v>
-      </c>
-      <c r="L73" t="n">
-        <v>135.881666666667</v>
-      </c>
-      <c r="M73" t="n">
-        <v>155.718333333333</v>
-      </c>
-      <c r="N73" t="n">
-        <v>161.718333333333</v>
-      </c>
-      <c r="O73" t="n">
-        <v>168.671666666667</v>
-      </c>
-      <c r="P73" t="n">
-        <v>175.625</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>183.448333333333</v>
-      </c>
-      <c r="R73" t="n">
-        <v>184.775833333333</v>
-      </c>
-      <c r="S73" t="n">
-        <v>191.509166666667</v>
-      </c>
-      <c r="T73" t="n">
-        <v>197.049166666667</v>
-      </c>
-      <c r="U73" t="n">
-        <v>198.953333333333</v>
-      </c>
-      <c r="V73" t="n">
-        <v>199.764166666667</v>
-      </c>
-      <c r="W73" t="n">
-        <v>202.846666666667</v>
-      </c>
-      <c r="X73" t="n">
-        <v>219.59</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>213.8</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>214.350833333333</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>214.89</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>214.89</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>214.89</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>214.89</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>214.89</v>
-      </c>
-      <c r="AF73" t="s"/>
-    </row>
-    <row r="74" spans="1:32">
-      <c r="A74" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B74" t="s">
-        <v>177</v>
-      </c>
-      <c r="C74" t="s">
-        <v>178</v>
-      </c>
-      <c r="D74" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.172213783333333</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.4527626666666671</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.6693706216666671</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.864119166666667</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.2079</v>
-      </c>
-      <c r="K74" t="n">
-        <v>1.3144975</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1.86206916666667</v>
-      </c>
-      <c r="M74" t="n">
-        <v>2.38801916666667</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3.11084416666667</v>
-      </c>
-      <c r="O74" t="n">
-        <v>3.610935</v>
-      </c>
-      <c r="P74" t="n">
-        <v>4.398594999999999</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>4.73327104649872</v>
-      </c>
-      <c r="R74" t="n">
-        <v>4.77887538643579</v>
-      </c>
-      <c r="S74" t="n">
-        <v>4.46350331051587</v>
-      </c>
-      <c r="T74" t="n">
-        <v>3.60307204258248</v>
-      </c>
-      <c r="U74" t="n">
-        <v>4.00252266503643</v>
-      </c>
-      <c r="V74" t="n">
-        <v>3.74566069008764</v>
-      </c>
-      <c r="W74" t="n">
-        <v>5.046109245212349</v>
-      </c>
-      <c r="X74" t="n">
-        <v>4.797136875</v>
-      </c>
-      <c r="Y74" t="n">
-        <v>4.86066553209349</v>
-      </c>
-      <c r="Z74" t="n">
-        <v>5.14725266514413</v>
-      </c>
-      <c r="AA74" t="n">
-        <v>5.39588706794446</v>
-      </c>
-      <c r="AB74" t="n">
-        <v>6.152816248124489</v>
-      </c>
-      <c r="AC74" t="n">
-        <v>8.632355962341959</v>
-      </c>
-      <c r="AD74" t="n">
-        <v>10.313053230894</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>9.51950141981807</v>
-      </c>
-      <c r="AF74" t="s"/>
-    </row>
-    <row r="75" spans="1:32">
-      <c r="A75" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B75" t="s">
-        <v>179</v>
-      </c>
-      <c r="C75" t="s">
-        <v>180</v>
-      </c>
-      <c r="D75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.0051042665511595</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.006490494099587921</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.008160799059512879</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.008675219329313241</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.0100137132167889</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.0121250465891802</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.0237060128381228</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.0383447102054205</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.04446837641743</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.0551146597125866</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0.0550982905810338</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>0.6982160713057231</v>
-      </c>
-      <c r="R75" t="n">
-        <v>5.07441941463195</v>
-      </c>
-      <c r="S75" t="n">
-        <v>22.3890396048255</v>
-      </c>
-      <c r="T75" t="n">
-        <v>164.547356500646</v>
-      </c>
-      <c r="U75" t="n">
-        <v>9686.771669541751</v>
-      </c>
-      <c r="V75" t="n">
-        <v>6723052073.3381</v>
-      </c>
-      <c r="W75" t="n">
-        <v>29418000</v>
-      </c>
-      <c r="X75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>36190000</v>
-      </c>
-      <c r="AF75" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/data/exchangerate_simple.xlsx
+++ b/data/exchangerate_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshua/Documents/GitHub/DataAnalysis-groepje17/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED147655-6E30-DB45-AE1E-BD6C12EBF34E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2C262D-1480-8C44-A289-485D1A236DA6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,9 +181,6 @@
     <t>CAF</t>
   </si>
   <si>
-    <t>Cote d' Ivoire</t>
-  </si>
-  <si>
     <t>CIV</t>
   </si>
   <si>
@@ -295,9 +292,6 @@
     <t>IND</t>
   </si>
   <si>
-    <t>Iran</t>
-  </si>
-  <si>
     <t xml:space="preserve"> IRN</t>
   </si>
   <si>
@@ -527,6 +521,12 @@
   </si>
   <si>
     <t>ZMB</t>
+  </si>
+  <si>
+    <t>Iran  (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
   </si>
 </sst>
 </file>
@@ -545,6 +545,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -891,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="AA73" sqref="AA73"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1947,10 +1948,10 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2042,10 +2043,10 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2137,10 +2138,10 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2232,10 +2233,10 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2327,10 +2328,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2422,10 +2423,10 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2517,10 +2518,10 @@
         <v>54</v>
       </c>
       <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
         <v>65</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2612,10 +2613,10 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2707,10 +2708,10 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -2802,10 +2803,10 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -2897,10 +2898,10 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>74</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -2992,10 +2993,10 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -3087,10 +3088,10 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -3182,10 +3183,10 @@
         <v>84</v>
       </c>
       <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>80</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
@@ -3277,10 +3278,10 @@
         <v>85</v>
       </c>
       <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
         <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3372,10 +3373,10 @@
         <v>90</v>
       </c>
       <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3467,10 +3468,10 @@
         <v>98</v>
       </c>
       <c r="B28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" t="s">
         <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3562,10 +3563,10 @@
         <v>104</v>
       </c>
       <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -3657,10 +3658,10 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
         <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -3752,10 +3753,10 @@
         <v>110</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -3847,10 +3848,10 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -3939,10 +3940,10 @@
         <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -4034,10 +4035,10 @@
         <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -4129,10 +4130,10 @@
         <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4224,10 +4225,10 @@
         <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -4319,10 +4320,10 @@
         <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -4414,10 +4415,10 @@
         <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -4509,10 +4510,10 @@
         <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -4604,10 +4605,10 @@
         <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -4699,10 +4700,10 @@
         <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -4794,10 +4795,10 @@
         <v>139</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -4889,10 +4890,10 @@
         <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -4984,10 +4985,10 @@
         <v>156</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -5079,10 +5080,10 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
@@ -5174,10 +5175,10 @@
         <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
@@ -5269,10 +5270,10 @@
         <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
@@ -5364,10 +5365,10 @@
         <v>166</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
         <v>33</v>
@@ -5459,10 +5460,10 @@
         <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
@@ -5554,10 +5555,10 @@
         <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -5649,10 +5650,10 @@
         <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
@@ -5744,10 +5745,10 @@
         <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
@@ -5839,10 +5840,10 @@
         <v>184</v>
       </c>
       <c r="B53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
@@ -5934,10 +5935,10 @@
         <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
@@ -6029,10 +6030,10 @@
         <v>201</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
@@ -6124,10 +6125,10 @@
         <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
@@ -6219,10 +6220,10 @@
         <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -6314,10 +6315,10 @@
         <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
         <v>33</v>
@@ -6409,10 +6410,10 @@
         <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
@@ -6504,10 +6505,10 @@
         <v>222</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
@@ -6599,10 +6600,10 @@
         <v>225</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
@@ -6694,10 +6695,10 @@
         <v>227</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
@@ -6789,10 +6790,10 @@
         <v>232</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
@@ -6884,10 +6885,10 @@
         <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
@@ -6979,10 +6980,10 @@
         <v>244</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
@@ -7074,10 +7075,10 @@
         <v>245</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
@@ -7169,10 +7170,10 @@
         <v>246</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
@@ -7264,10 +7265,10 @@
         <v>260</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
@@ -7359,10 +7360,10 @@
         <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
         <v>33</v>
@@ -7451,5 +7452,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>